--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25322D5A-5ADC-457B-91DB-C78BDA9EF2FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC998F-ACA9-4F60-94E4-CC3DD26E3D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
     <sheet name="MAIN_PRODUCT" sheetId="7" r:id="rId2"/>
-    <sheet name="INVENTORY BRAND" sheetId="3" r:id="rId3"/>
-    <sheet name="INVENTORY TYPE" sheetId="2" r:id="rId4"/>
-    <sheet name="SPECS" sheetId="4" r:id="rId5"/>
-    <sheet name="VARIANT" sheetId="6" r:id="rId6"/>
-    <sheet name="DATE" sheetId="5" r:id="rId7"/>
+    <sheet name="CATALOG" sheetId="8" r:id="rId3"/>
+    <sheet name="FREEBIES SET" sheetId="9" r:id="rId4"/>
+    <sheet name="ADD ONS" sheetId="10" r:id="rId5"/>
+    <sheet name="INVENTORY BRAND" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="INVENTORY TYPE" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="SPECS" sheetId="4" state="hidden" r:id="rId8"/>
+    <sheet name="VARIANT" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="DATE" sheetId="5" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="NAMES_BRAND">OFFSET(_TBL_BRAND[NAME], 0, 0, COUNTA(_TBL_BRAND[NAME]), 1)</definedName>
@@ -33,12 +36,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -401,6 +413,36 @@
   </si>
   <si>
     <t>HP REGULAR 4 / 16</t>
+  </si>
+  <si>
+    <t>INVENTORY ID</t>
+  </si>
+  <si>
+    <t>FREEBIES NAME</t>
+  </si>
+  <si>
+    <t>DETAILS</t>
+  </si>
+  <si>
+    <t>8 Freebies</t>
+  </si>
+  <si>
+    <t>Mix And Match  Helmet</t>
+  </si>
+  <si>
+    <t>Mix And Match  Action Cam</t>
+  </si>
+  <si>
+    <t>Mix And Match  Cherry Mobile</t>
+  </si>
+  <si>
+    <t>ADD ON NAME</t>
+  </si>
+  <si>
+    <t>ADD ON PRICE</t>
+  </si>
+  <si>
+    <t>FREEBIES SET ID</t>
   </si>
 </sst>
 </file>
@@ -410,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,16 +466,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -521,11 +598,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BC2E6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9BC2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -535,11 +638,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,7 +667,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -556,6 +676,48 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -615,24 +777,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="B2:H112" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="16">
       <calculatedColumnFormula array="1">IF(_TBL_INVENTORY[[#This Row],[NAME]]="", "", INDEX(_TBL_INVENTORY[ID],ROW()-ROW(_TBL_INVENTORY[#Headers]))+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="15">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(_TBL_INVENTORY_TYPE[NAME], TRUE, "NO DATA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="13">
       <calculatedColumnFormula array="1">_TBL_INVENTORY_TYPE[NAME]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -654,6 +816,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:D9" totalsRowCount="1" dataDxfId="9">
+  <autoFilter ref="B2:D8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+      <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3D78DD2F-9502-4479-BC02-D404E7777D9C}" name="DETAILS" dataDxfId="4" totalsRowDxfId="3">
+      <calculatedColumnFormula>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}" name="_TBL_ADD_ONS" displayName="_TBL_ADD_ONS" ref="B2:D8" totalsRowShown="0">
+  <autoFilter ref="B2:D8" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{21597612-61CE-45BC-9EE8-BD8EA0AFAD3C}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{712AB32B-16D3-4728-8D3F-55A6FD7B8193}" name="ADD ON NAME"/>
+    <tableColumn id="3" xr3:uid="{1A96F031-E865-4B44-9469-8713EC1C8BCB}" name="ADD ON PRICE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78A9F142-C346-43E5-BB50-A6237E2D96FC}" name="_TBL_BRAND" displayName="_TBL_BRAND" ref="B3:D19" totalsRowShown="0">
   <autoFilter ref="B3:D19" xr:uid="{78A9F142-C346-43E5-BB50-A6237E2D96FC}"/>
   <tableColumns count="3">
@@ -665,7 +855,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}" name="_TBL_INVENTORY_TYPE" displayName="_TBL_INVENTORY_TYPE" ref="B3:D11" totalsRowShown="0">
   <autoFilter ref="B3:D11" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}"/>
   <tableColumns count="3">
@@ -677,7 +867,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}" name="_TBL_SPECS" displayName="_TBL_SPECS" ref="B3:D16" totalsRowShown="0">
   <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
   <tableColumns count="3">
@@ -689,7 +879,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}" name="_TBL_VARIANT" displayName="_TBL_VARIANT" ref="B3:D14" totalsRowShown="0">
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
@@ -701,7 +891,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
   <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
   <tableColumns count="5">
@@ -983,8 +1173,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A82" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,14 +1201,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -1076,14 +1266,14 @@
       <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1098,14 +1288,14 @@
       <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1120,14 +1310,14 @@
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1142,14 +1332,14 @@
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1164,14 +1354,14 @@
       <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1186,14 +1376,14 @@
       <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1208,14 +1398,14 @@
       <c r="D10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1230,14 +1420,14 @@
       <c r="D11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1252,14 +1442,14 @@
       <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1274,14 +1464,14 @@
       <c r="D13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1296,14 +1486,14 @@
       <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1318,14 +1508,14 @@
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1340,14 +1530,14 @@
       <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1362,14 +1552,14 @@
       <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1384,14 +1574,14 @@
       <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1406,14 +1596,14 @@
       <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1428,14 +1618,14 @@
       <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1450,14 +1640,14 @@
       <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1472,14 +1662,14 @@
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1494,14 +1684,14 @@
       <c r="D23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1516,14 +1706,14 @@
       <c r="D24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1538,14 +1728,14 @@
       <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1560,14 +1750,14 @@
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1582,14 +1772,14 @@
       <c r="D27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1604,14 +1794,14 @@
       <c r="D28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1626,14 +1816,14 @@
       <c r="D29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1648,14 +1838,14 @@
       <c r="D30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1670,14 +1860,14 @@
       <c r="D31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1692,14 +1882,14 @@
       <c r="D32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1714,14 +1904,14 @@
       <c r="D33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1736,14 +1926,14 @@
       <c r="D34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1758,14 +1948,14 @@
       <c r="D35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1780,14 +1970,14 @@
       <c r="D36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1802,14 +1992,14 @@
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1824,14 +2014,14 @@
       <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1846,14 +2036,14 @@
       <c r="D39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1868,14 +2058,14 @@
       <c r="D40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1890,14 +2080,14 @@
       <c r="D41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
@@ -1910,14 +2100,14 @@
       <c r="D42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
@@ -1930,12 +2120,12 @@
       <c r="D43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
@@ -1948,14 +2138,14 @@
       <c r="D44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="10"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
@@ -1968,14 +2158,14 @@
       <c r="D45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="10"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
@@ -1988,14 +2178,14 @@
       <c r="D46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
@@ -2008,12 +2198,12 @@
       <c r="D47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
@@ -2026,12 +2216,12 @@
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
@@ -2044,14 +2234,14 @@
       <c r="D49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
@@ -2064,14 +2254,14 @@
       <c r="D50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
@@ -2084,12 +2274,12 @@
       <c r="D51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
@@ -2102,12 +2292,12 @@
       <c r="D52" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
@@ -2120,12 +2310,12 @@
       <c r="D53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
@@ -2138,12 +2328,12 @@
       <c r="D54" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
@@ -2156,12 +2346,12 @@
       <c r="D55" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
@@ -2174,12 +2364,12 @@
       <c r="D56" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
@@ -2192,12 +2382,12 @@
       <c r="D57" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
@@ -2210,12 +2400,12 @@
       <c r="D58" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
@@ -2228,12 +2418,12 @@
       <c r="D59" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
@@ -2246,12 +2436,12 @@
       <c r="D60" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
@@ -2264,12 +2454,12 @@
       <c r="D61" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
@@ -2282,12 +2472,12 @@
       <c r="D62" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
@@ -2300,12 +2490,12 @@
       <c r="D63" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
@@ -2318,12 +2508,12 @@
       <c r="D64" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
@@ -2336,12 +2526,12 @@
       <c r="D65" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
@@ -2354,12 +2544,12 @@
       <c r="D66" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
@@ -2372,12 +2562,12 @@
       <c r="D67" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
@@ -2390,12 +2580,12 @@
       <c r="D68" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
@@ -2408,12 +2598,12 @@
       <c r="D69" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9" t="s">
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
@@ -2426,12 +2616,12 @@
       <c r="D70" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
@@ -2444,12 +2634,12 @@
       <c r="D71" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9" t="s">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
@@ -2462,12 +2652,12 @@
       <c r="D72" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
@@ -2480,12 +2670,12 @@
       <c r="D73" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
@@ -2498,12 +2688,12 @@
       <c r="D74" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9" t="s">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
@@ -2516,12 +2706,12 @@
       <c r="D75" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
@@ -2534,12 +2724,12 @@
       <c r="D76" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="10"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
@@ -2552,12 +2742,12 @@
       <c r="D77" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9" t="s">
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
@@ -2570,12 +2760,12 @@
       <c r="D78" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
@@ -2588,12 +2778,12 @@
       <c r="D79" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="10"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
@@ -2606,12 +2796,12 @@
       <c r="D80" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9" t="s">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="10"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
@@ -2624,12 +2814,12 @@
       <c r="D81" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
@@ -2642,12 +2832,12 @@
       <c r="D82" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="10"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
@@ -2660,12 +2850,12 @@
       <c r="D83" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
@@ -2678,12 +2868,12 @@
       <c r="D84" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
@@ -2696,12 +2886,12 @@
       <c r="D85" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9" t="s">
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
@@ -2714,12 +2904,12 @@
       <c r="D86" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="10"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
@@ -2732,12 +2922,12 @@
       <c r="D87" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9" t="s">
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="10"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
@@ -2750,12 +2940,12 @@
       <c r="D88" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9" t="s">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="10"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
@@ -2768,12 +2958,12 @@
       <c r="D89" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9" t="s">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
@@ -2786,12 +2976,12 @@
       <c r="D90" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9" t="s">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
@@ -2804,12 +2994,12 @@
       <c r="D91" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
@@ -2822,12 +3012,12 @@
       <c r="D92" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
@@ -2840,12 +3030,12 @@
       <c r="D93" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="10"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
@@ -2858,12 +3048,12 @@
       <c r="D94" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
@@ -2876,12 +3066,12 @@
       <c r="D95" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9" t="s">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
@@ -2894,12 +3084,12 @@
       <c r="D96" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9" t="s">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
@@ -2912,14 +3102,14 @@
       <c r="D97" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2934,14 +3124,14 @@
       <c r="D98" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H98" s="10"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
@@ -2954,12 +3144,12 @@
       <c r="D99" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
@@ -2972,12 +3162,12 @@
       <c r="D100" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
@@ -2990,12 +3180,12 @@
       <c r="D101" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="4">
@@ -3008,12 +3198,12 @@
       <c r="D102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
@@ -3026,12 +3216,12 @@
       <c r="D103" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9" t="s">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
@@ -3044,12 +3234,12 @@
       <c r="D104" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
@@ -3062,12 +3252,12 @@
       <c r="D105" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9" t="s">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="10"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
@@ -3080,12 +3270,12 @@
       <c r="D106" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9" t="s">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="10"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
@@ -3094,10 +3284,10 @@
         <v/>
       </c>
       <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
@@ -3106,10 +3296,10 @@
         <v/>
       </c>
       <c r="D108" s="8"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="10"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
@@ -3118,10 +3308,10 @@
         <v/>
       </c>
       <c r="D109" s="8"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="10"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
@@ -3130,10 +3320,10 @@
         <v/>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="10"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
@@ -3142,10 +3332,10 @@
         <v/>
       </c>
       <c r="D111" s="8"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="10"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
@@ -3153,11 +3343,11 @@
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
         <v/>
       </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="13"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3186,564 +3376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B09DFB-FA49-416F-9DAF-E92BF0C096B6}">
-  <dimension ref="B2:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>3990</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C13" xr:uid="{13014AAD-F3B4-43EE-85F2-492F1BCA8973}">
-      <formula1>NAMES_INVENTORY</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A450A5E-3E0F-444E-BDAD-AEE2C008E088}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC0350-5B6B-4648-ABED-42DC8C833D16}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7B97F-C4EB-4A9E-A68B-99D89E813663}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAC9A1E-A859-41F7-AD92-161A64E2A420}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528F2ED-CB8E-4989-B7CE-48AFFFE97D21}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:F10"/>
@@ -3777,15 +3410,15 @@
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -3798,15 +3431,15 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B10" ca="1" si="0">TODAY()</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45765</v>
+        <v>45766</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45765</v>
+        <v>45766</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -3819,15 +3452,15 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+1</f>
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+7</f>
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -3840,15 +3473,15 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)-6</f>
-        <v>45753</v>
+        <v>45760</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)</f>
-        <v>45759</v>
+        <v>45766</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -3861,7 +3494,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)+1</f>
@@ -3882,7 +3515,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C8" s="3">
         <f ca="1">EOMONTH(TODAY(),-2)+1</f>
@@ -3903,7 +3536,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
@@ -3924,7 +3557,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45766</v>
+        <v>45767</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3938,4 +3571,975 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B09DFB-FA49-416F-9DAF-E92BF0C096B6}">
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>3990</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4 C6:C13" xr:uid="{13014AAD-F3B4-43EE-85F2-492F1BCA8973}">
+      <formula1>NAMES_INVENTORY</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{8FDC8C55-3C38-446E-B2BB-A83BFACDE960}">
+      <formula1>NAMES_INVENTORY</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B7E052-462E-495F-8FD9-04F1492A8F5C}">
+  <dimension ref="B2:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AE20E-7F3B-4B99-B7CE-E7F8F3E42D03}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="21" t="e">
+        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="21" t="e">
+        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="21" t="e">
+        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="21" t="e">
+        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="str">
+        <f>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="str">
+        <f>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="str">
+        <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
+        <v>COUNT: 4</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999EC004-D5A6-4FD2-81AC-503CE05B51A5}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A450A5E-3E0F-444E-BDAD-AEE2C008E088}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC0350-5B6B-4648-ABED-42DC8C833D16}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7B97F-C4EB-4A9E-A68B-99D89E813663}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAC9A1E-A859-41F7-AD92-161A64E2A420}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC998F-ACA9-4F60-94E4-CC3DD26E3D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC4D9B-162D-41CD-91BC-E55F01B6922B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -599,9 +599,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9BC2E6"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF9BC2E6"/>
@@ -613,22 +611,27 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF9BC2E6"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF9BC2E6"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -642,12 +645,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -663,11 +660,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -777,31 +928,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="B2:H112" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="23">
       <calculatedColumnFormula array="1">IF(_TBL_INVENTORY[[#This Row],[NAME]]="", "", INDEX(_TBL_INVENTORY[ID],ROW()-ROW(_TBL_INVENTORY[#Headers]))+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="22">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="21">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(_TBL_INVENTORY_TYPE[NAME], TRUE, "NO DATA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="20">
       <calculatedColumnFormula array="1">_TBL_INVENTORY_TYPE[NAME]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
+  <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="7">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
+    <tableColumn id="3" xr3:uid="{A91C6BCB-45AE-49B7-9057-A55FE227685E}" name="END_DATE"/>
+    <tableColumn id="4" xr3:uid="{1B92C887-8657-4981-9E54-A60A8C229375}" name="NAME"/>
+    <tableColumn id="5" xr3:uid="{29A412E2-3BFB-4C0D-8DD5-71D6C2549B3E}" name="DAYS_COUNT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02A14F2E-9B97-4248-934D-5C67BBB5E3D0}" name="_TBL_MAIN_PRODUCT" displayName="_TBL_MAIN_PRODUCT" ref="B2:G13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02A14F2E-9B97-4248-934D-5C67BBB5E3D0}" name="_TBL_PRODUCT" displayName="_TBL_PRODUCT" ref="B2:G13" totalsRowShown="0">
   <autoFilter ref="B2:G13" xr:uid="{32742F3E-8295-4972-A579-BAB05142984A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0656624A-87C3-4763-8289-AB5450AA2A7F}" name="ID"/>
@@ -816,14 +983,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:D9" totalsRowCount="1" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_PRODUCT_CATALOG" displayName="_TBL_PRODUCT_CATALOG" ref="B2:C33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="B2:C33" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:D9" totalsRowCount="1" dataDxfId="16">
   <autoFilter ref="B2:D8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3D78DD2F-9502-4479-BC02-D404E7777D9C}" name="DETAILS" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3D78DD2F-9502-4479-BC02-D404E7777D9C}" name="DETAILS" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -831,7 +1009,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}" name="_TBL_ADD_ONS" displayName="_TBL_ADD_ONS" ref="B2:D8" totalsRowShown="0">
   <autoFilter ref="B2:D8" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}"/>
   <tableColumns count="3">
@@ -843,7 +1021,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78A9F142-C346-43E5-BB50-A6237E2D96FC}" name="_TBL_BRAND" displayName="_TBL_BRAND" ref="B3:D19" totalsRowShown="0">
   <autoFilter ref="B3:D19" xr:uid="{78A9F142-C346-43E5-BB50-A6237E2D96FC}"/>
   <tableColumns count="3">
@@ -855,7 +1033,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}" name="_TBL_INVENTORY_TYPE" displayName="_TBL_INVENTORY_TYPE" ref="B3:D11" totalsRowShown="0">
   <autoFilter ref="B3:D11" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}"/>
   <tableColumns count="3">
@@ -867,41 +1045,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}" name="_TBL_SPECS" displayName="_TBL_SPECS" ref="B3:D16" totalsRowShown="0">
   <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}" name="_TBL_VARIANT" displayName="_TBL_VARIANT" ref="B3:D14" totalsRowShown="0">
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB1B283B-D25C-4ADE-980A-2B88D96C5E7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{EF23B0B5-69D7-4593-BCD3-1E27223DDFEC}" name="CODE"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
-  <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="0">
-      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
-    <tableColumn id="3" xr3:uid="{A91C6BCB-45AE-49B7-9057-A55FE227685E}" name="END_DATE"/>
-    <tableColumn id="4" xr3:uid="{1B92C887-8657-4981-9E54-A60A8C229375}" name="NAME"/>
-    <tableColumn id="5" xr3:uid="{29A412E2-3BFB-4C0D-8DD5-71D6C2549B3E}" name="DAYS_COUNT"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1201,14 +1363,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -3410,15 +3572,15 @@
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -3431,15 +3593,15 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B10" ca="1" si="0">TODAY()</f>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45766</v>
+        <v>45769</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45766</v>
+        <v>45769</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -3452,7 +3614,7 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+1</f>
@@ -3473,7 +3635,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)-6</f>
@@ -3494,7 +3656,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)+1</f>
@@ -3515,7 +3677,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C8" s="3">
         <f ca="1">EOMONTH(TODAY(),-2)+1</f>
@@ -3536,7 +3698,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
@@ -3557,7 +3719,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3578,7 +3740,7 @@
   <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,12 +3808,12 @@
   <dimension ref="B2:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -3659,191 +3821,194 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="19">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="17">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="17">
+      <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="18">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
-        <v>4</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="18">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+      <c r="B14" s="19">
         <v>5</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3851,7 +4016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AE20E-7F3B-4B99-B7CE-E7F8F3E42D03}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3874,76 +4039,76 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="19">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="21" t="e">
+      <c r="D3" s="15" t="e">
         <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="21" t="e">
+      <c r="D4" s="15" t="e">
         <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
+      <c r="B5" s="13">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="21" t="e">
+      <c r="D5" s="15" t="e">
         <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="21" t="e">
+      <c r="D6" s="15" t="e">
         <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21" t="str">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="str">
         <f>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="str">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="str">
         <f>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="str">
+      <c r="B9" s="13" t="str">
         <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
         <v>COUNT: 4</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3957,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999EC004-D5A6-4FD2-81AC-503CE05B51A5}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,11 +4238,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4211,11 +4376,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4310,11 +4475,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4438,11 +4603,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">

--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCC4D9B-162D-41CD-91BC-E55F01B6922B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBFE5DB-FFE8-4FBE-9E87-E9C2C969C64D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -421,9 +412,6 @@
     <t>FREEBIES NAME</t>
   </si>
   <si>
-    <t>DETAILS</t>
-  </si>
-  <si>
     <t>8 Freebies</t>
   </si>
   <si>
@@ -443,6 +431,9 @@
   </si>
   <si>
     <t>FREEBIES SET ID</t>
+  </si>
+  <si>
+    <t>DELL REGULAR 2 / 16</t>
   </si>
 </sst>
 </file>
@@ -631,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -651,24 +642,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -681,41 +666,36 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B9BD5"/>
-          <bgColor rgb="FF5B9BD5"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <b/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDEBF7"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -798,13 +778,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF9BC2E6"/>
         </left>
@@ -820,21 +793,35 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -848,27 +835,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -928,24 +905,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="B2:H112" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="22">
+  <autoFilter ref="B2:H112" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Ons"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="21">
       <calculatedColumnFormula array="1">IF(_TBL_INVENTORY[[#This Row],[NAME]]="", "", INDEX(_TBL_INVENTORY[ID],ROW()-ROW(_TBL_INVENTORY[#Headers]))+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="20">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="19">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(_TBL_INVENTORY_TYPE[NAME], TRUE, "NO DATA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="18">
       <calculatedColumnFormula array="1">_TBL_INVENTORY_TYPE[NAME]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,7 +938,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
   <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="4">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
@@ -983,35 +966,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_PRODUCT_CATALOG" displayName="_TBL_PRODUCT_CATALOG" ref="B2:C33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_FREEBIES_CATALOG" displayName="_TBL_FREEBIES_CATALOG" ref="B2:C33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B2:C33" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:D9" totalsRowCount="1" dataDxfId="16">
-  <autoFilter ref="B2:D8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:C9" totalsRowCount="1" dataDxfId="7">
+  <autoFilter ref="B2:C8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="1">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{3D78DD2F-9502-4479-BC02-D404E7777D9C}" name="DETAILS" dataDxfId="11" totalsRowDxfId="10">
-      <calculatedColumnFormula>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="2" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}" name="_TBL_ADD_ONS" displayName="_TBL_ADD_ONS" ref="B2:D8" totalsRowShown="0">
-  <autoFilter ref="B2:D8" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}" name="_TBL_ADD_ONS" displayName="_TBL_ADD_ONS" ref="B2:D47" totalsRowShown="0">
+  <autoFilter ref="B2:D47" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{21597612-61CE-45BC-9EE8-BD8EA0AFAD3C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{712AB32B-16D3-4728-8D3F-55A6FD7B8193}" name="ADD ON NAME"/>
@@ -1050,7 +1030,7 @@
   <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1062,7 +1042,7 @@
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB1B283B-D25C-4ADE-980A-2B88D96C5E7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{EF23B0B5-69D7-4593-BCD3-1E27223DDFEC}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1335,44 +1315,44 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="11" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" customWidth="1"/>
+    <col min="21" max="21" width="26.5546875" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" customWidth="1"/>
+    <col min="26" max="26" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+    <col min="29" max="29" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1417,7 +1397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1439,7 +1419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1461,7 +1441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1483,7 +1463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1505,7 +1485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1527,7 +1507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1549,7 +1529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1571,7 +1551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1593,7 +1573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1615,7 +1595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1637,7 +1617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1659,7 +1639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1681,7 +1661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1703,7 +1683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1725,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1747,7 +1727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1769,7 +1749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1791,7 +1771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1813,7 +1793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1835,7 +1815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1857,7 +1837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1879,7 +1859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -1901,7 +1881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -1923,7 +1903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -1945,7 +1925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -1967,7 +1947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>27</v>
       </c>
@@ -1989,7 +1969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -2011,7 +1991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -2033,7 +2013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -2055,7 +2035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -2077,7 +2057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>32</v>
       </c>
@@ -2099,7 +2079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>33</v>
       </c>
@@ -2121,7 +2101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>34</v>
       </c>
@@ -2143,7 +2123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>35</v>
       </c>
@@ -2165,7 +2145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>36</v>
       </c>
@@ -2187,7 +2167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -2209,7 +2189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>38</v>
       </c>
@@ -2231,7 +2211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>39</v>
       </c>
@@ -2251,7 +2231,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>40</v>
       </c>
@@ -2271,7 +2251,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>41</v>
       </c>
@@ -2289,7 +2269,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>42</v>
       </c>
@@ -2309,7 +2289,7 @@
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>43</v>
       </c>
@@ -2329,7 +2309,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <v>44</v>
       </c>
@@ -2349,7 +2329,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -2367,7 +2347,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>46</v>
       </c>
@@ -2385,7 +2365,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>47</v>
       </c>
@@ -2405,7 +2385,7 @@
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>48</v>
       </c>
@@ -2425,7 +2405,7 @@
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -2443,7 +2423,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>50</v>
       </c>
@@ -2461,7 +2441,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <v>51</v>
       </c>
@@ -2479,7 +2459,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>52</v>
       </c>
@@ -2497,7 +2477,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>53</v>
       </c>
@@ -2515,7 +2495,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>54</v>
       </c>
@@ -2533,7 +2513,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>55</v>
       </c>
@@ -2551,7 +2531,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>56</v>
       </c>
@@ -2569,7 +2549,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>57</v>
       </c>
@@ -2587,7 +2567,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>58</v>
       </c>
@@ -2605,7 +2585,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>59</v>
       </c>
@@ -2623,7 +2603,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>60</v>
       </c>
@@ -2641,7 +2621,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>61</v>
       </c>
@@ -2659,7 +2639,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <v>62</v>
       </c>
@@ -2677,7 +2657,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -2695,7 +2675,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>64</v>
       </c>
@@ -2713,7 +2693,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>65</v>
       </c>
@@ -2731,7 +2711,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>66</v>
       </c>
@@ -2749,7 +2729,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>67</v>
       </c>
@@ -2767,7 +2747,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>68</v>
       </c>
@@ -2785,7 +2765,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>69</v>
       </c>
@@ -2803,7 +2783,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>70</v>
       </c>
@@ -2821,7 +2801,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -2839,7 +2819,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>72</v>
       </c>
@@ -2857,7 +2837,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <v>73</v>
       </c>
@@ -2875,7 +2855,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <v>74</v>
       </c>
@@ -2893,7 +2873,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <v>75</v>
       </c>
@@ -2911,7 +2891,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="4">
         <v>76</v>
       </c>
@@ -2929,7 +2909,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <v>77</v>
       </c>
@@ -2947,7 +2927,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <v>78</v>
       </c>
@@ -2965,7 +2945,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <v>79</v>
       </c>
@@ -2983,7 +2963,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <v>80</v>
       </c>
@@ -3001,7 +2981,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <v>81</v>
       </c>
@@ -3019,7 +2999,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="4">
         <v>82</v>
       </c>
@@ -3037,7 +3017,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="4">
         <v>83</v>
       </c>
@@ -3055,7 +3035,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <v>84</v>
       </c>
@@ -3073,7 +3053,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="4">
         <v>85</v>
       </c>
@@ -3091,7 +3071,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="4">
         <v>86</v>
       </c>
@@ -3109,7 +3089,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="4">
         <v>87</v>
       </c>
@@ -3127,7 +3107,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
         <v>88</v>
       </c>
@@ -3145,7 +3125,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="4">
         <v>89</v>
       </c>
@@ -3163,7 +3143,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="4">
         <v>90</v>
       </c>
@@ -3181,7 +3161,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="4">
         <v>91</v>
       </c>
@@ -3199,7 +3179,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="4">
         <v>92</v>
       </c>
@@ -3217,7 +3197,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="4">
         <v>93</v>
       </c>
@@ -3235,7 +3215,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="4">
         <v>94</v>
       </c>
@@ -3253,7 +3233,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="4">
         <v>95</v>
       </c>
@@ -3275,7 +3255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="4">
         <v>96</v>
       </c>
@@ -3295,7 +3275,7 @@
       </c>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4">
         <v>97</v>
       </c>
@@ -3313,7 +3293,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="4">
         <v>98</v>
       </c>
@@ -3331,7 +3311,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101" s="4">
         <v>99</v>
       </c>
@@ -3349,7 +3329,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="4">
         <v>100</v>
       </c>
@@ -3367,7 +3347,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="4">
         <v>101</v>
       </c>
@@ -3385,7 +3365,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="4">
         <v>102</v>
       </c>
@@ -3403,7 +3383,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="4">
         <v>103</v>
       </c>
@@ -3421,7 +3401,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="4">
         <v>104</v>
       </c>
@@ -3439,7 +3419,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="4"/>
       <c r="C107" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -3451,7 +3431,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="4"/>
       <c r="C108" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -3463,7 +3443,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109" s="4"/>
       <c r="C109" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -3475,7 +3455,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110" s="4"/>
       <c r="C110" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -3487,7 +3467,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111" s="4"/>
       <c r="C111" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -3499,7 +3479,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="4"/>
       <c r="C112" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -3547,12 +3527,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="33.140625" customWidth="1"/>
+    <col min="2" max="6" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -3569,18 +3549,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -3590,18 +3570,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B10" ca="1" si="0">TODAY()</f>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -3611,10 +3591,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+1</f>
@@ -3632,10 +3612,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)-6</f>
@@ -3653,10 +3633,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)+1</f>
@@ -3674,10 +3654,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C8" s="3">
         <f ca="1">EOMONTH(TODAY(),-2)+1</f>
@@ -3695,10 +3675,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
@@ -3716,10 +3696,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3737,21 +3717,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B09DFB-FA49-416F-9DAF-E92BF0C096B6}">
-  <dimension ref="B2:G4"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>119</v>
       </c>
@@ -3779,12 +3760,25 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>120</v>
       </c>
       <c r="D4">
         <v>3990</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -3805,204 +3799,205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B7E052-462E-495F-8FD9-04F1492A8F5C}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="20" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <v>4</v>
-      </c>
-      <c r="C13" s="18" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4014,101 +4009,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AE20E-7F3B-4B99-B7CE-E7F8F3E42D03}">
-  <dimension ref="B2:D9"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
       </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="15" t="e">
-        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="15" t="e">
-        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="15" t="e">
-        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="15" t="e">
-        <f ca="1">IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="15" t="str">
-        <f>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="15" t="str">
-        <f>IF(_TBL_FREEBIES_SET[[#This Row],[ID]]&lt;&gt;"", GetInventoryList(_TBL_FREEBIES_SET[[#This Row],[ID]]), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="str">
         <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
         <v>COUNT: 4</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4120,93 +4087,292 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999EC004-D5A6-4FD2-81AC-503CE05B51A5}">
-  <dimension ref="B2:D8"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4223,28 +4389,28 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4263,7 +4429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4271,7 +4437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4279,7 +4445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4287,7 +4453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4295,7 +4461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4303,7 +4469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4311,7 +4477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4319,7 +4485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4327,7 +4493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -4335,7 +4501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -4363,26 +4529,26 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="69.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4404,7 +4570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4415,7 +4581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4426,7 +4592,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4437,7 +4603,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4468,20 +4634,20 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4500,7 +4666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4508,7 +4674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4516,7 +4682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4524,7 +4690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4532,7 +4698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4540,7 +4706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4548,7 +4714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4556,7 +4722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4564,16 +4730,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
   </sheetData>
@@ -4593,23 +4759,23 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4628,7 +4794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4636,7 +4802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4644,7 +4810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4652,7 +4818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4660,7 +4826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4668,7 +4834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4676,7 +4842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4684,7 +4850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4692,10 +4858,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
   </sheetData>

--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F814DF36-3DCF-4B7B-BEFD-F5B559AB62D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEEC48F-96AE-4ADD-A47C-BBCB0F01C197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="LAPTOP MOVEMENTS" sheetId="11" r:id="rId3"/>
     <sheet name="CATALOG" sheetId="8" r:id="rId4"/>
     <sheet name="FREEBIES SET" sheetId="9" r:id="rId5"/>
-    <sheet name="ADD ONS" sheetId="10" r:id="rId6"/>
-    <sheet name="INVENTORY BRAND" sheetId="3" state="hidden" r:id="rId7"/>
-    <sheet name="INVENTORY TYPE" sheetId="2" state="hidden" r:id="rId8"/>
-    <sheet name="SPECS" sheetId="4" state="hidden" r:id="rId9"/>
-    <sheet name="VARIANT" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="DATE" sheetId="5" state="hidden" r:id="rId11"/>
+    <sheet name="CATALOG_ADD_ONS" sheetId="12" r:id="rId6"/>
+    <sheet name="ADD ONS SET" sheetId="13" r:id="rId7"/>
+    <sheet name="ADD ONS" sheetId="10" r:id="rId8"/>
+    <sheet name="INVENTORY BRAND" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="INVENTORY TYPE" sheetId="2" state="hidden" r:id="rId10"/>
+    <sheet name="SPECS" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="VARIANT" sheetId="6" state="hidden" r:id="rId12"/>
+    <sheet name="DATE" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="NAMES_BRAND">OFFSET(_TBL_BRAND[NAME], 0, 0, COUNTA(_TBL_BRAND[NAME]), 1)</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -456,6 +458,132 @@
   </si>
   <si>
     <t>Sheets</t>
+  </si>
+  <si>
+    <t>DELL REGULAR 4 / 32</t>
+  </si>
+  <si>
+    <t>HP REGULAR 4 / 32</t>
+  </si>
+  <si>
+    <t>CTL REGULAR 4 / 16</t>
+  </si>
+  <si>
+    <t>LENOVO REGULAR 4 / 16</t>
+  </si>
+  <si>
+    <t>LENOVO REGULAR 4 / 32</t>
+  </si>
+  <si>
+    <t>HP TOUCHSCREEN 4 / 16</t>
+  </si>
+  <si>
+    <t>HP TOUCHSCREEN 4 / 32</t>
+  </si>
+  <si>
+    <t>DELL TOUCHSCREEN 4 / 16</t>
+  </si>
+  <si>
+    <t>DELL TOUCHSCREEN 4 / 32</t>
+  </si>
+  <si>
+    <t>ACER TOUCHSCREEN 4 / 32</t>
+  </si>
+  <si>
+    <t>ACER TOUCHSCREEN 4 / 16</t>
+  </si>
+  <si>
+    <t>LENOVO TOUCHSCREEN 4 / 16</t>
+  </si>
+  <si>
+    <t>CTL TOUCHSCREEN 4 / 32</t>
+  </si>
+  <si>
+    <t>DELL 14' 4 / 16</t>
+  </si>
+  <si>
+    <t>HP 14' 2 / 16</t>
+  </si>
+  <si>
+    <t>HP 14' 4 / 16</t>
+  </si>
+  <si>
+    <t>HP 14' 4 / 32</t>
+  </si>
+  <si>
+    <t>HP 14' 4 / 64</t>
+  </si>
+  <si>
+    <t>HP 14' 8 / 32</t>
+  </si>
+  <si>
+    <t>ACER 14' 2 / 16</t>
+  </si>
+  <si>
+    <t>ACER 14' 4 / 16</t>
+  </si>
+  <si>
+    <t>ASUS 14' 2 / 16</t>
+  </si>
+  <si>
+    <t>LENOVO 14' 4 / 16</t>
+  </si>
+  <si>
+    <t>DELL TOUCH &amp; FLIP 4 / 16</t>
+  </si>
+  <si>
+    <t>DELL TOUCH &amp; FLIP 4 / 32</t>
+  </si>
+  <si>
+    <t>DELL TOUCH &amp; FLIP 8 / 128</t>
+  </si>
+  <si>
+    <t>ACER TOUCH &amp; FLIP 4 / 16</t>
+  </si>
+  <si>
+    <t>ACER TOUCH &amp; FLIP 4 / 32</t>
+  </si>
+  <si>
+    <t>LENOVO TOUCH &amp; FLIP 4 / 16</t>
+  </si>
+  <si>
+    <t>LENOVO TOUCH &amp; FLIP 4 / 32</t>
+  </si>
+  <si>
+    <t>LENOVO TOUCH &amp; FLIP 4 / 128</t>
+  </si>
+  <si>
+    <t>HP TOUCH &amp; FLIP 4 / 32</t>
+  </si>
+  <si>
+    <t>HP TOUCH &amp; FLIP 4 / 128</t>
+  </si>
+  <si>
+    <t>ASUS TOUCH &amp; FLIP 4 / 32</t>
+  </si>
+  <si>
+    <t>CTL TOUCH &amp; FLIP 4 / 32</t>
+  </si>
+  <si>
+    <t>Macbook Intel i3</t>
+  </si>
+  <si>
+    <t>Macbook Intel i5</t>
+  </si>
+  <si>
+    <t>DELL Intel i3</t>
+  </si>
+  <si>
+    <t>DELL Intel i5</t>
+  </si>
+  <si>
+    <t>DELL Intel i7</t>
+  </si>
+  <si>
+    <t>LENOVO Intel i3</t>
+  </si>
+  <si>
+    <t>LENOVO Intel i5</t>
   </si>
 </sst>
 </file>
@@ -657,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -681,19 +809,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -732,6 +883,159 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -739,6 +1043,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -894,6 +1207,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -951,52 +1267,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="36">
   <autoFilter ref="B2:H112" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Add Ons"/>
+        <filter val="Laptop"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="35">
       <calculatedColumnFormula array="1">IF(_TBL_INVENTORY[[#This Row],[NAME]]="", "", INDEX(_TBL_INVENTORY[ID],ROW()-ROW(_TBL_INVENTORY[#Headers]))+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="34">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="33">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(_TBL_INVENTORY_TYPE[NAME], TRUE, "NO DATA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="32">
       <calculatedColumnFormula array="1">_TBL_INVENTORY_TYPE[NAME]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}" name="_TBL_INVENTORY_TYPE" displayName="_TBL_INVENTORY_TYPE" ref="B3:D11" totalsRowShown="0">
+  <autoFilter ref="B3:D11" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{90A09401-0DC3-4AD8-8D90-EEC2DFC3CB0F}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{954414FA-17D5-4D11-B9E7-A24567D02D94}" name="NAME"/>
+    <tableColumn id="3" xr3:uid="{1169795E-F503-4706-8354-787BF36F79DB}" name="CODE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}" name="_TBL_SPECS" displayName="_TBL_SPECS" ref="B3:D16" totalsRowShown="0">
+  <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}" name="_TBL_VARIANT" displayName="_TBL_VARIANT" ref="B3:D14" totalsRowShown="0">
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB1B283B-D25C-4ADE-980A-2B88D96C5E7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{EF23B0B5-69D7-4593-BCD3-1E27223DDFEC}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
   <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="15">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
@@ -1009,12 +1349,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02A14F2E-9B97-4248-934D-5C67BBB5E3D0}" name="_TBL_PRODUCT" displayName="_TBL_PRODUCT" ref="B2:G13" totalsRowShown="0">
-  <autoFilter ref="B2:G13" xr:uid="{32742F3E-8295-4972-A579-BAB05142984A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02A14F2E-9B97-4248-934D-5C67BBB5E3D0}" name="_TBL_PRODUCT" displayName="_TBL_PRODUCT" ref="B2:G207" totalsRowShown="0">
+  <autoFilter ref="B2:G207" xr:uid="{32742F3E-8295-4972-A579-BAB05142984A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0656624A-87C3-4763-8289-AB5450AA2A7F}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7D24E016-805D-4535-94C3-7C80F76EA37C}" name="PRODUCT NAME"/>
-    <tableColumn id="3" xr3:uid="{D6F08869-9A50-45CB-87E3-8E34E8601979}" name="DEFAULT PRICE"/>
+    <tableColumn id="3" xr3:uid="{D6F08869-9A50-45CB-87E3-8E34E8601979}" name="DEFAULT PRICE" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{2B277F88-04F6-45B4-99FE-4FB2DEB3BD48}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{BD4C4A0C-697F-4E81-A8F5-6C607DC63F57}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{9FF6D662-4FF1-447D-A818-E1DF9864F508}" name="Column6"/>
@@ -1036,31 +1376,55 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_FREEBIES_CATALOG" displayName="_TBL_FREEBIES_CATALOG" ref="B2:C33" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_FREEBIES_CATALOG" displayName="_TBL_FREEBIES_CATALOG" ref="B2:C33" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="B2:C33" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="8">
-  <autoFilter ref="B2:D11" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:C12" totalsRowCount="1" dataDxfId="20">
+  <autoFilter ref="B2:C11" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="3">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="3" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{8CED12B7-BE42-4E2E-B204-01F78F79521C}" name="COST" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="18" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:C33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:C33" xr:uid="{88E544AB-3CB3-482C-9BD3-1D3E19963507}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="7">
+  <autoFilter ref="B2:D11" xr:uid="{BB0AAB6B-835C-42D6-8D3B-7ED9003E59CC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1">
+      <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_ADD_ONS_SET[ID]))</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="5" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}" name="_TBL_ADD_ONS" displayName="_TBL_ADD_ONS" ref="B2:D47" totalsRowShown="0">
   <autoFilter ref="B2:D47" xr:uid="{8D17F0C9-2D07-433C-A0FC-345FB0EBC625}"/>
   <tableColumns count="3">
@@ -1072,37 +1436,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78A9F142-C346-43E5-BB50-A6237E2D96FC}" name="_TBL_BRAND" displayName="_TBL_BRAND" ref="B3:D19" totalsRowShown="0">
   <autoFilter ref="B3:D19" xr:uid="{78A9F142-C346-43E5-BB50-A6237E2D96FC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{164B0A26-DC38-4497-8A54-5C952BA750B8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{C6C5408A-F1D0-4012-9514-5A8BF7A2F6E7}" name="NAME"/>
     <tableColumn id="3" xr3:uid="{D802C4D4-2728-483E-9AAE-6D7369B4B2BF}" name="CODE"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}" name="_TBL_INVENTORY_TYPE" displayName="_TBL_INVENTORY_TYPE" ref="B3:D11" totalsRowShown="0">
-  <autoFilter ref="B3:D11" xr:uid="{E8DB9209-D5DD-42BB-A6AB-512336F4ABBB}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{90A09401-0DC3-4AD8-8D90-EEC2DFC3CB0F}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{954414FA-17D5-4D11-B9E7-A24567D02D94}" name="NAME"/>
-    <tableColumn id="3" xr3:uid="{1169795E-F503-4706-8354-787BF36F79DB}" name="CODE"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}" name="_TBL_SPECS" displayName="_TBL_SPECS" ref="B3:D16" totalsRowShown="0">
-  <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1374,8 +1714,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C96"/>
+    <sheetView topLeftCell="A17" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,16 +1742,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1456,7 +1796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1478,7 +1818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1500,7 +1840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1522,7 +1862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1544,7 +1884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1566,7 +1906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1588,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1610,7 +1950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1632,7 +1972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1654,7 +1994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1676,7 +2016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1698,7 +2038,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1720,7 +2060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1742,7 +2082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1764,7 +2104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1786,7 +2126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1808,7 +2148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1830,7 +2170,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1852,7 +2192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1874,7 +2214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1896,7 +2236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1918,7 +2258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -1940,7 +2280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -1962,7 +2302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -1984,7 +2324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -2006,7 +2346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>27</v>
       </c>
@@ -2028,7 +2368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -2050,7 +2390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -2072,7 +2412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -2094,7 +2434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -2116,7 +2456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>32</v>
       </c>
@@ -2138,7 +2478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>33</v>
       </c>
@@ -2160,7 +2500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>34</v>
       </c>
@@ -2182,7 +2522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>35</v>
       </c>
@@ -2204,7 +2544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>36</v>
       </c>
@@ -2226,7 +2566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -2248,7 +2588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>38</v>
       </c>
@@ -2270,7 +2610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>39</v>
       </c>
@@ -2290,7 +2630,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>40</v>
       </c>
@@ -2310,7 +2650,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>41</v>
       </c>
@@ -2328,7 +2668,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>42</v>
       </c>
@@ -2348,7 +2688,7 @@
       </c>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>43</v>
       </c>
@@ -2368,7 +2708,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>44</v>
       </c>
@@ -2388,7 +2728,7 @@
       </c>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -2406,7 +2746,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>46</v>
       </c>
@@ -2424,7 +2764,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>47</v>
       </c>
@@ -2444,7 +2784,7 @@
       </c>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>48</v>
       </c>
@@ -2464,7 +2804,7 @@
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -2482,7 +2822,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>50</v>
       </c>
@@ -2500,7 +2840,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>51</v>
       </c>
@@ -2518,7 +2858,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>52</v>
       </c>
@@ -2536,7 +2876,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>53</v>
       </c>
@@ -2554,7 +2894,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>54</v>
       </c>
@@ -2572,7 +2912,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>55</v>
       </c>
@@ -2590,7 +2930,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>56</v>
       </c>
@@ -2608,7 +2948,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>57</v>
       </c>
@@ -2626,7 +2966,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>58</v>
       </c>
@@ -2644,7 +2984,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>59</v>
       </c>
@@ -2662,7 +3002,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>60</v>
       </c>
@@ -2680,7 +3020,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>61</v>
       </c>
@@ -2698,7 +3038,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>62</v>
       </c>
@@ -2716,7 +3056,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -2734,7 +3074,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>64</v>
       </c>
@@ -2752,7 +3092,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>65</v>
       </c>
@@ -2770,7 +3110,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>66</v>
       </c>
@@ -2788,7 +3128,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>67</v>
       </c>
@@ -2806,7 +3146,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>68</v>
       </c>
@@ -2824,7 +3164,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>69</v>
       </c>
@@ -2842,7 +3182,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>70</v>
       </c>
@@ -2860,7 +3200,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -2878,7 +3218,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>72</v>
       </c>
@@ -2896,7 +3236,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>73</v>
       </c>
@@ -2914,7 +3254,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>74</v>
       </c>
@@ -2932,7 +3272,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>75</v>
       </c>
@@ -2950,7 +3290,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>76</v>
       </c>
@@ -2968,7 +3308,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>77</v>
       </c>
@@ -2986,7 +3326,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>78</v>
       </c>
@@ -3004,7 +3344,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>79</v>
       </c>
@@ -3022,7 +3362,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>80</v>
       </c>
@@ -3040,7 +3380,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>81</v>
       </c>
@@ -3058,7 +3398,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>82</v>
       </c>
@@ -3076,7 +3416,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>83</v>
       </c>
@@ -3094,7 +3434,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>84</v>
       </c>
@@ -3112,7 +3452,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>85</v>
       </c>
@@ -3130,7 +3470,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>86</v>
       </c>
@@ -3148,7 +3488,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>87</v>
       </c>
@@ -3166,7 +3506,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>88</v>
       </c>
@@ -3184,7 +3524,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>89</v>
       </c>
@@ -3202,7 +3542,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>90</v>
       </c>
@@ -3220,7 +3560,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>91</v>
       </c>
@@ -3238,7 +3578,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>92</v>
       </c>
@@ -3256,7 +3596,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>93</v>
       </c>
@@ -3274,7 +3614,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>94</v>
       </c>
@@ -3578,6 +3918,239 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC0350-5B6B-4648-ABED-42DC8C833D16}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7B97F-C4EB-4A9E-A68B-99D89E813663}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAC9A1E-A859-41F7-AD92-161A64E2A420}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:D14"/>
@@ -3593,11 +4166,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3699,7 +4272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3528F2ED-CB8E-4989-B7CE-48AFFFE97D21}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:F10"/>
@@ -3899,17 +4472,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B09DFB-FA49-416F-9DAF-E92BF0C096B6}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3920,7 +4493,7 @@
       <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E2" t="s">
@@ -3934,32 +4507,542 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="22">
         <v>3990</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="22">
         <v>3990</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6">
-        <v>6000</v>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="22">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="22">
+        <v>3990</v>
       </c>
     </row>
   </sheetData>
@@ -3972,8 +5055,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4041,8 +5125,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,7 +5158,7 @@
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4082,7 +5166,7 @@
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4090,7 +5174,7 @@
       <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4098,7 +5182,7 @@
       <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4106,7 +5190,7 @@
       <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4114,7 +5198,7 @@
       <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4122,7 +5206,7 @@
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4130,7 +5214,7 @@
       <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4138,7 +5222,7 @@
       <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4146,7 +5230,7 @@
       <c r="B13" s="15">
         <v>4</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4154,7 +5238,7 @@
       <c r="B14" s="16">
         <v>5</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4162,7 +5246,7 @@
       <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4258,10 +5342,317 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AE20E-7F3B-4B99-B7CE-E7F8F3E42D03}">
   <sheetPr codeName="Sheet9"/>
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="str">
+        <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
+        <v>COUNT: 4</v>
+      </c>
+      <c r="C12" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83D5980-7070-4C69-A636-37796FD0E371}">
+  <dimension ref="B2:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
+      <c r="C33" s="15"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C33" xr:uid="{B9783B63-91A6-401A-8B17-5213520FFC10}">
+      <formula1>NAMES_INVENTORY</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1221D056-109F-447C-B3EE-4FA0A79595AD}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,81 +5674,59 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="20">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="20"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
-        <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
-        <v>COUNT: 5</v>
+        <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_ADD_ONS_SET[ID]))</f>
+        <v>COUNT: 1</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -4369,7 +5738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999EC004-D5A6-4FD2-81AC-503CE05B51A5}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:D47"/>
@@ -4784,7 +6153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A450A5E-3E0F-444E-BDAD-AEE2C008E088}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
@@ -4805,11 +6174,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4909,239 +6278,6 @@
       <c r="C14" t="s">
         <v>52</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC0350-5B6B-4648-ABED-42DC8C833D16}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="69.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7B97F-C4EB-4A9E-A68B-99D89E813663}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main-server\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C24497-2545-408E-B759-169F789B80A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82594041-9ABD-47D3-8183-D1348304F620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="LAPTOP MOVEMENTS" sheetId="11" r:id="rId3"/>
     <sheet name="CATALOG" sheetId="8" r:id="rId4"/>
     <sheet name="FREEBIES SET" sheetId="9" r:id="rId5"/>
-    <sheet name="CATALOG_ADD_ONS" sheetId="12" r:id="rId6"/>
-    <sheet name="ADD ONS SET" sheetId="13" r:id="rId7"/>
+    <sheet name="CATALOG_ADD_ONS" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="ADD ONS SET" sheetId="13" state="hidden" r:id="rId7"/>
     <sheet name="ADD ONS" sheetId="10" r:id="rId8"/>
     <sheet name="INVENTORY BRAND" sheetId="3" state="hidden" r:id="rId9"/>
     <sheet name="INVENTORY TYPE" sheetId="2" state="hidden" r:id="rId10"/>
@@ -39,28 +39,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -75,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -640,6 +631,21 @@
   <si>
     <t>table</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>G 2010</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>FREEBIES</t>
+  </si>
+  <si>
+    <t>ADD ONS</t>
+  </si>
 </sst>
 </file>
 
@@ -873,21 +879,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="56">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -897,29 +903,85 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDEBF7"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1282,6 +1344,87 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B9BD5"/>
+          <bgColor rgb="FF5B9BD5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1462,29 +1605,8 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1494,27 +1616,101 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDEBF7"/>
+          <bgColor rgb="FFDDEBF7"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1667,188 +1863,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDEBF7"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDEBF7"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDEBF7"/>
-          <bgColor rgb="FFDDEBF7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B9BD5"/>
-          <bgColor rgb="FF5B9BD5"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1908,30 +1926,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H112" totalsRowShown="0" dataDxfId="53">
-  <autoFilter ref="B2:H112" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Laptop"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}" name="_TBL_INVENTORY" displayName="_TBL_INVENTORY" ref="B2:H116" totalsRowShown="0" dataDxfId="55">
+  <autoFilter ref="B2:H116" xr:uid="{D7793D7E-998E-4340-B665-58A624CA35C1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{56F98167-A797-429F-9D5B-36A31BD611C6}" name="ID" dataDxfId="54">
       <calculatedColumnFormula array="1">IF(_TBL_INVENTORY[[#This Row],[NAME]]="", "", INDEX(_TBL_INVENTORY[ID],ROW()-ROW(_TBL_INVENTORY[#Headers]))+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="51">
+    <tableColumn id="2" xr3:uid="{A455ACF3-9F4A-4528-B37E-016C6CF99C23}" name="NAME" dataDxfId="53">
       <calculatedColumnFormula>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{7F0CEBD5-4CE4-433D-8A6E-C1E342775294}" name="TYPE" dataDxfId="52">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(_TBL_INVENTORY_TYPE[NAME], TRUE, "NO DATA")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{02050A77-D5F0-4668-A774-8302CA0A05E5}" name="BRAND" dataDxfId="51">
       <calculatedColumnFormula array="1">_TBL_INVENTORY_TYPE[NAME]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{D579966A-DEF4-4F23-9EB0-F455C229761E}" name="CODE" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{8FE9C4CC-BA2B-4D29-9D5C-62A59FD184A3}" name="VARIANT" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{BAEB2A07-6602-4B05-9C73-7A790A4A0E22}" name="SPECS" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1954,7 +1966,7 @@
   <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1966,7 +1978,7 @@
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB1B283B-D25C-4ADE-980A-2B88D96C5E7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{EF23B0B5-69D7-4593-BCD3-1E27223DDFEC}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1977,7 +1989,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
   <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="6">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
@@ -1994,8 +2006,8 @@
   <autoFilter ref="B2:L207" xr:uid="{32742F3E-8295-4972-A579-BAB05142984A}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0656624A-87C3-4763-8289-AB5450AA2A7F}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{7D24E016-805D-4535-94C3-7C80F76EA37C}" name="PRODUCT NAME" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{D6F08869-9A50-45CB-87E3-8E34E8601979}" name="DEFAULT PRICE" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7D24E016-805D-4535-94C3-7C80F76EA37C}" name="PRODUCT NAME" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{D6F08869-9A50-45CB-87E3-8E34E8601979}" name="DEFAULT PRICE" dataDxfId="46"/>
     <tableColumn id="4" xr3:uid="{2B277F88-04F6-45B4-99FE-4FB2DEB3BD48}" name="Column4">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
@@ -2131,7 +2143,7 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9795F752-816A-4F1B-800E-C0FCD07DC089}" name="Column1" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{9795F752-816A-4F1B-800E-C0FCD07DC089}" name="Column1" dataDxfId="38">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2145,7 +2157,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1161A557-7053-476F-9D4F-1946F2024163}" name="Column2" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{1161A557-7053-476F-9D4F-1946F2024163}" name="Column2" dataDxfId="37">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2159,7 +2171,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{41E18BF6-7CB7-463D-82D1-AF0E122CE2CB}" name="Column3" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{41E18BF6-7CB7-463D-82D1-AF0E122CE2CB}" name="Column3" dataDxfId="36">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2173,7 +2185,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FCE1EA40-765B-44B1-9E30-4014BB8EEE8C}" name="Column4" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{FCE1EA40-765B-44B1-9E30-4014BB8EEE8C}" name="Column4" dataDxfId="35">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2187,7 +2199,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EE0C330D-4944-40E8-90E0-F1609EE60CC0}" name="Column5" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{EE0C330D-4944-40E8-90E0-F1609EE60CC0}" name="Column5" dataDxfId="34">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2201,7 +2213,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{50C6CDD3-769C-4FFB-93E9-48210A4A9D32}" name="Column6" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{50C6CDD3-769C-4FFB-93E9-48210A4A9D32}" name="Column6" dataDxfId="33">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2215,7 +2227,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9B3DDB39-DEBB-4EA9-AD5F-6AA03CEC726C}" name="Column7" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{9B3DDB39-DEBB-4EA9-AD5F-6AA03CEC726C}" name="Column7" dataDxfId="32">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2229,7 +2241,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CFA4FF6F-30B2-4139-931F-B24333DE0F12}" name="Column8" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{CFA4FF6F-30B2-4139-931F-B24333DE0F12}" name="Column8" dataDxfId="31">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2249,25 +2261,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:C12" totalsRowCount="1" dataDxfId="38">
-  <autoFilter ref="B2:C11" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:E12" totalsRowCount="1" dataDxfId="30">
+  <autoFilter ref="B2:E11" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F94F3B7C-43FB-401D-946C-911DC6084C25}" name="PRICE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{18E71263-B447-41B8-A307-55E11D217F5C}" name="TYPE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="B2:K33" xr:uid="{88E544AB-3CB3-482C-9BD3-1D3E19963507}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{FF8BAA1F-8484-4D05-A154-C6916BF5F8CB}" name="Column1" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{FF8BAA1F-8484-4D05-A154-C6916BF5F8CB}" name="Column1" dataDxfId="22">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2281,7 +2295,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E18A7404-24C0-40D0-958F-0154168E0004}" name="Column2" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{E18A7404-24C0-40D0-958F-0154168E0004}" name="Column2" dataDxfId="21">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2295,7 +2309,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12C153DC-3610-4EF4-B4F5-4136E729CEE2}" name="Column3" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{12C153DC-3610-4EF4-B4F5-4136E729CEE2}" name="Column3" dataDxfId="20">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2309,7 +2323,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{03E57C53-410B-46A8-9FCB-493AA86E0AF0}" name="Column4" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{03E57C53-410B-46A8-9FCB-493AA86E0AF0}" name="Column4" dataDxfId="19">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2323,7 +2337,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A33D4DCC-6C69-4003-A6D4-346CFAF90733}" name="Column5" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{A33D4DCC-6C69-4003-A6D4-346CFAF90733}" name="Column5" dataDxfId="18">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2337,7 +2351,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E77AF6CC-8EBF-4EC3-9912-0C1A9B18038E}" name="Column6" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{E77AF6CC-8EBF-4EC3-9912-0C1A9B18038E}" name="Column6" dataDxfId="17">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2351,7 +2365,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A9BE5BDC-5C88-4163-97AF-1958C37017B6}" name="Column7" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{A9BE5BDC-5C88-4163-97AF-1958C37017B6}" name="Column7" dataDxfId="16">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2365,7 +2379,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D38A165-0B74-4C55-99A8-F97336A836A3}" name="Column8" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{1D38A165-0B74-4C55-99A8-F97336A836A3}" name="Column8" dataDxfId="15">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2385,14 +2399,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="14">
   <autoFilter ref="B2:D11" xr:uid="{BB0AAB6B-835C-42D6-8D3B-7ED9003E59CC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_ADD_ONS_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2686,10 +2700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H112"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C51"/>
+    <sheetView topLeftCell="B37" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,17 +2729,17 @@
     <col min="29" max="29" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -2770,7 +2784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -2792,7 +2806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -2814,7 +2828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -2836,7 +2850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -2858,7 +2872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -2902,11 +2916,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
         <v>LENOVO REGULAR 4 / 32</v>
       </c>
@@ -2924,107 +2938,110 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>ACER REGULAR 4 / 16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>ASUS REGULAR 4 / 16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>ASUS REGULAR 4 / 32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
         <v>HP TOUCHSCREEN 4 / 16</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP TOUCHSCREEN 4 / 32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>11</v>
-      </c>
-      <c r="C13" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL TOUCHSCREEN 4 / 16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>12</v>
-      </c>
-      <c r="C14" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL TOUCHSCREEN 4 / 32</v>
-      </c>
       <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>13</v>
       </c>
       <c r="C15" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ACER TOUCHSCREEN 4 / 32</v>
+        <v>HP TOUCHSCREEN 4 / 32</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -3034,19 +3051,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>14</v>
       </c>
       <c r="C16" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ACER TOUCHSCREEN 4 / 16</v>
+        <v>DELL TOUCHSCREEN 4 / 16</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -3062,20 +3079,20 @@
       </c>
       <c r="C17" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO TOUCHSCREEN 4 / 16</v>
+        <v>DELL TOUCHSCREEN 4 / 32</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -3084,13 +3101,13 @@
       </c>
       <c r="C18" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>CTL TOUCHSCREEN 4 / 32</v>
+        <v>ACER TOUCHSCREEN 4 / 32</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
@@ -3106,17 +3123,17 @@
       </c>
       <c r="C19" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL 14' 4 / 16</v>
+        <v>ACER TOUCHSCREEN 4 / 16</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>31</v>
@@ -3128,20 +3145,20 @@
       </c>
       <c r="C20" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP 14' 2 / 16</v>
+        <v>LENOVO TOUCHSCREEN 4 / 16</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -3150,20 +3167,20 @@
       </c>
       <c r="C21" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP 14' 4 / 16</v>
+        <v>CTL TOUCHSCREEN 4 / 32</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -3172,20 +3189,20 @@
       </c>
       <c r="C22" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP 14' 4 / 32</v>
+        <v>DELL 14' 4 / 16</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -3194,7 +3211,7 @@
       </c>
       <c r="C23" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP 14' 4 / 64</v>
+        <v>HP 14' 2 / 16</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>4</v>
@@ -3207,7 +3224,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -3216,7 +3233,7 @@
       </c>
       <c r="C24" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP 14' 8 / 32</v>
+        <v>HP 14' 4 / 16</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>4</v>
@@ -3229,7 +3246,7 @@
         <v>36</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -3238,20 +3255,20 @@
       </c>
       <c r="C25" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ACER 14' 2 / 16</v>
+        <v>HP 14' 4 / 32</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -3260,20 +3277,20 @@
       </c>
       <c r="C26" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ACER 14' 4 / 16</v>
+        <v>HP 14' 4 / 64</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -3282,20 +3299,20 @@
       </c>
       <c r="C27" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ASUS 14' 2 / 16</v>
+        <v>HP 14' 8 / 32</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -3304,20 +3321,20 @@
       </c>
       <c r="C28" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO 14' 4 / 16</v>
+        <v>ACER 14' 2 / 16</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -3326,17 +3343,17 @@
       </c>
       <c r="C29" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL TOUCH &amp; FLIP 4 / 16</v>
+        <v>ACER 14' 4 / 16</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>31</v>
@@ -3348,20 +3365,20 @@
       </c>
       <c r="C30" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL TOUCH &amp; FLIP 4 / 32</v>
+        <v>ASUS 14' 2 / 16</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -3370,20 +3387,20 @@
       </c>
       <c r="C31" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL TOUCH &amp; FLIP 8 / 128</v>
+        <v>LENOVO 14' 4 / 16</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -3392,13 +3409,13 @@
       </c>
       <c r="C32" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ACER TOUCH &amp; FLIP 4 / 16</v>
+        <v>DELL TOUCH &amp; FLIP 4 / 16</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
@@ -3414,13 +3431,13 @@
       </c>
       <c r="C33" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ACER TOUCH &amp; FLIP 4 / 32</v>
+        <v>DELL TOUCH &amp; FLIP 4 / 32</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
@@ -3436,20 +3453,20 @@
       </c>
       <c r="C34" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO TOUCH &amp; FLIP 4 / 16</v>
+        <v>DELL TOUCH &amp; FLIP 8 / 128</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -3458,20 +3475,20 @@
       </c>
       <c r="C35" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO TOUCH &amp; FLIP 4 / 32</v>
+        <v>ACER TOUCH &amp; FLIP 4 / 16</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -3480,20 +3497,20 @@
       </c>
       <c r="C36" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO TOUCH &amp; FLIP 4 / 128</v>
+        <v>ACER TOUCH &amp; FLIP 4 / 32</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -3502,20 +3519,20 @@
       </c>
       <c r="C37" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP TOUCH &amp; FLIP 4 / 32</v>
+        <v>LENOVO TOUCH &amp; FLIP 4 / 16</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -3524,20 +3541,20 @@
       </c>
       <c r="C38" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>HP TOUCH &amp; FLIP 4 / 128</v>
+        <v>LENOVO TOUCH &amp; FLIP 4 / 32</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -3546,20 +3563,20 @@
       </c>
       <c r="C39" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>ASUS TOUCH &amp; FLIP 4 / 32</v>
+        <v>LENOVO TOUCH &amp; FLIP 4 / 128</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -3568,13 +3585,13 @@
       </c>
       <c r="C40" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>CTL TOUCH &amp; FLIP 4 / 32</v>
+        <v>HP TOUCH &amp; FLIP 4 / 32</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
@@ -3590,19 +3607,21 @@
       </c>
       <c r="C41" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Macbook Intel i3</v>
+        <v>HP TOUCH &amp; FLIP 4 / 128</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
@@ -3610,19 +3629,21 @@
       </c>
       <c r="C42" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Macbook Intel i5</v>
+        <v>ASUS TOUCH &amp; FLIP 4 / 32</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
@@ -3630,17 +3651,21 @@
       </c>
       <c r="C43" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Fujitsu</v>
+        <v>CTL TOUCH &amp; FLIP 4 / 32</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
+      <c r="G43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
@@ -3648,13 +3673,13 @@
       </c>
       <c r="C44" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL Intel i3</v>
+        <v>Macbook Intel i3</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
@@ -3668,13 +3693,13 @@
       </c>
       <c r="C45" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL Intel i5</v>
+        <v>Macbook Intel i5</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
@@ -3688,18 +3713,16 @@
       </c>
       <c r="C46" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>DELL Intel i7</v>
+        <v>Fujitsu</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -3708,16 +3731,18 @@
       </c>
       <c r="C47" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Avgo</v>
+        <v>DELL Intel i3</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -3726,16 +3751,18 @@
       </c>
       <c r="C48" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Toshiba</v>
+        <v>DELL Intel i5</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -3744,17 +3771,17 @@
       </c>
       <c r="C49" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO Intel i3</v>
+        <v>DELL Intel i7</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H49" s="9"/>
     </row>
@@ -3764,18 +3791,16 @@
       </c>
       <c r="C50" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>LENOVO Intel i5</v>
+        <v>Avgo</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -3784,1063 +3809,1091 @@
       </c>
       <c r="C51" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Nec</v>
+        <v>Toshiba</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>50</v>
       </c>
       <c r="C52" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Computer Table</v>
+        <v>LENOVO Intel i3</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>51</v>
       </c>
       <c r="C53" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Keyboard/Mouse</v>
+        <v>LENOVO Intel i5</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>52</v>
       </c>
       <c r="C54" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Large Mouse pad</v>
+        <v>Nec</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>53</v>
       </c>
       <c r="C55" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Wifi-dongle</v>
+        <v>Computer Table</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>54</v>
       </c>
       <c r="C56" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Speaker</v>
+        <v>Keyboard/Mouse</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>55</v>
       </c>
       <c r="C57" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Webcam</v>
+        <v>Large Mouse pad</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>56</v>
       </c>
       <c r="C58" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>VGA</v>
+        <v>Wifi-dongle</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>57</v>
       </c>
       <c r="C59" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Power Cord</v>
+        <v>Speaker</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>58</v>
       </c>
       <c r="C60" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Laptop Table</v>
+        <v>Webcam</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>59</v>
       </c>
       <c r="C61" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Mouse</v>
+        <v>VGA</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>60</v>
       </c>
       <c r="C62" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Mouse Pad</v>
+        <v>Power Cord</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>61</v>
       </c>
       <c r="C63" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>P47 Headphone</v>
+        <v>Laptop Table</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>62</v>
       </c>
       <c r="C64" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Laptop Stand</v>
+        <v>Mouse</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>63</v>
       </c>
       <c r="C65" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Laptop Brush</v>
+        <v>Mouse Pad</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>64</v>
       </c>
       <c r="C66" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Laptop Bag</v>
+        <v>P47 Headphone</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>65</v>
       </c>
       <c r="C67" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Stylus Pen</v>
+        <v>Laptop Stand</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>66</v>
       </c>
       <c r="C68" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>SD Card</v>
+        <v>Laptop Brush</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="4">
         <v>67</v>
       </c>
       <c r="C69" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Mic Stand</v>
+        <v>Laptop Bag</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="4">
         <v>68</v>
       </c>
       <c r="C70" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>B. Keyboard/M.</v>
+        <v>Stylus Pen</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="4">
         <v>69</v>
       </c>
       <c r="C71" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>AVR</v>
+        <v>SD Card</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>70</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>S.Earphones</v>
+        <v>Mic Stand</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="4">
         <v>71</v>
       </c>
       <c r="C73" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Powerbank</v>
+        <v>B. Keyboard/M.</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="4">
         <v>72</v>
       </c>
       <c r="C74" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Cool Pad</v>
+        <v>AVR</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="4">
         <v>73</v>
       </c>
       <c r="C75" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Vacuum Cleaner</v>
+        <v>S.Earphones</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="4">
         <v>74</v>
       </c>
       <c r="C76" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>S.Neckband</v>
+        <v>Powerbank</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
         <v>75</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Selfie Stick</v>
+        <v>Cool Pad</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
         <v>76</v>
       </c>
       <c r="C78" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>W.Speaker B.</v>
+        <v>Vacuum Cleaner</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
         <v>77</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Micro Stand</v>
+        <v>S.Neckband</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
         <v>78</v>
       </c>
       <c r="C80" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Extra Base Sony</v>
+        <v>Selfie Stick</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
         <v>79</v>
       </c>
       <c r="C81" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Card Reader</v>
+        <v>W.Speaker B.</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
         <v>80</v>
       </c>
       <c r="C82" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>TV Box</v>
+        <v>Micro Stand</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
         <v>81</v>
       </c>
       <c r="C83" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Dynamic S.</v>
+        <v>Extra Base Sony</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="4">
         <v>82</v>
       </c>
       <c r="C84" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>I Karaoke Box Big</v>
+        <v>Card Reader</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
         <v>83</v>
       </c>
       <c r="C85" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>I Karaoke Box Small</v>
+        <v>TV Box</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
         <v>84</v>
       </c>
       <c r="C86" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Oudio Bop 12.5</v>
+        <v>Dynamic S.</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
         <v>85</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Oudio Bop 8.5x3</v>
+        <v>I Karaoke Box Big</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>86</v>
       </c>
       <c r="C88" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Oudio Bop 8.5x2</v>
+        <v>I Karaoke Box Small</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="4">
         <v>87</v>
       </c>
       <c r="C89" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Big Box</v>
+        <v>Oudio Bop 12.5</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="4">
         <v>88</v>
       </c>
       <c r="C90" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Small Box</v>
+        <v>Oudio Bop 8.5x3</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="4">
         <v>89</v>
       </c>
       <c r="C91" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Echo Bag</v>
+        <v>Oudio Bop 8.5x2</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
     </row>
-    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="4">
         <v>90</v>
       </c>
       <c r="C92" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Paper Cutter</v>
+        <v>Big Box</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="4">
         <v>91</v>
       </c>
       <c r="C93" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Laminator</v>
+        <v>Small Box</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="4">
         <v>92</v>
       </c>
       <c r="C94" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>1080p Sports Cam</v>
+        <v>Echo Bag</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="4">
         <v>93</v>
       </c>
       <c r="C95" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Helmet</v>
+        <v>Paper Cutter</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="4">
         <v>94</v>
       </c>
       <c r="C96" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Cherry Mobile</v>
+        <v>Laminator</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="4">
         <v>95</v>
       </c>
       <c r="C97" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Sytem Intel i5 4th Gen</v>
+        <v>1080p Sports Cam</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="9"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="4">
         <v>96</v>
       </c>
       <c r="C98" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>System Ryzen 3</v>
+        <v>Helmet</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G98" s="1"/>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="4">
         <v>97</v>
       </c>
       <c r="C99" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Monitor</v>
+        <v>Cherry Mobile</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4">
         <v>98</v>
       </c>
       <c r="C100" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>TS 207</v>
+        <v>Sytem Intel i5 4th Gen</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="4">
         <v>99</v>
       </c>
       <c r="C101" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>MG 2570 S</v>
+        <v>System Ryzen 3</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="4">
         <v>100</v>
       </c>
       <c r="C102" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>MG 3070 S</v>
+        <v>Monitor</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="4">
         <v>101</v>
       </c>
       <c r="C103" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>G 2021</v>
+        <v>TS 207</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="4">
         <v>102</v>
       </c>
       <c r="C104" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>L 121</v>
+        <v>MG 2570 S</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="4">
         <v>103</v>
       </c>
       <c r="C105" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v>Brother 3420 W</v>
+        <v>MG 3070 S</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="4">
         <v>104</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C106" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>G 2010</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="4">
+        <v>105</v>
+      </c>
+      <c r="C107" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>G 2021</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="4">
+        <v>106</v>
+      </c>
+      <c r="C108" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>L 121</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="4">
+        <v>107</v>
+      </c>
+      <c r="C109" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v>Brother 3420 W</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="4">
+        <v>108</v>
+      </c>
+      <c r="C110" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
         <v>Charger</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1" t="s">
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-      <c r="C107" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v/>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="9"/>
-    </row>
-    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v/>
-      </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="9"/>
-    </row>
-    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v/>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="9"/>
-    </row>
-    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
-        <v/>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
@@ -4852,17 +4905,65 @@
       <c r="G111" s="1"/>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="2:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
         <v/>
       </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="12"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v/>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v/>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="9"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v/>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="9"/>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+      <c r="C116" t="str">
+        <f>_xlfn.TEXTJOIN(" ", TRUE, _TBL_INVENTORY[[#This Row],[BRAND]], _TBL_INVENTORY[[#This Row],[CODE]], _TBL_INVENTORY[[#This Row],[VARIANT]], _TBL_INVENTORY[[#This Row],[SPECS]])</f>
+        <v/>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4870,16 +4971,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D112" xr:uid="{44BDB95B-5B4E-4673-9420-35482EF4C7E9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D116" xr:uid="{44BDB95B-5B4E-4673-9420-35482EF4C7E9}">
       <formula1>NAMES_INVENTORY_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E112" xr:uid="{15CD93F5-EDDA-40BE-979F-372A7B92F62A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E116" xr:uid="{15CD93F5-EDDA-40BE-979F-372A7B92F62A}">
       <formula1>NAMES_BRAND</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H112" xr:uid="{E5A0D6AD-DEB7-4B21-BB88-E2B89E2DFEFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H116" xr:uid="{E5A0D6AD-DEB7-4B21-BB88-E2B89E2DFEFD}">
       <formula1>NAMES_SPECS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G112" xr:uid="{ACF393F7-B154-4DF0-97A6-8FD4273F2305}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G116" xr:uid="{ACF393F7-B154-4DF0-97A6-8FD4273F2305}">
       <formula1>NAMES_VARIANT</formula1>
     </dataValidation>
   </dataValidations>
@@ -4913,11 +5014,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -5012,11 +5113,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -5140,11 +5241,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -5280,15 +5381,15 @@
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -5301,15 +5402,15 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B10" ca="1" si="0">TODAY()</f>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -5322,7 +5423,7 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+1</f>
@@ -5343,7 +5444,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)-6</f>
@@ -5364,7 +5465,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)+1</f>
@@ -5385,7 +5486,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C8" s="3">
         <f ca="1">EOMONTH(TODAY(),-2)+1</f>
@@ -5406,7 +5507,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
@@ -5427,7 +5528,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45778</v>
+        <v>45780</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5446,10 +5547,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B09DFB-FA49-416F-9DAF-E92BF0C096B6}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:L207"/>
+  <dimension ref="B2:M207"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C3:C207"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5457,7 +5558,8 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" style="23" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="11.140625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="12" width="11.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -31025,7 +31127,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31077,7 +31179,7 @@
       <c r="C3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="25" t="str" cm="1">
+      <c r="D3" s="24" t="str" cm="1">
         <f t="array" ref="D3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31092,7 +31194,7 @@
 )</f>
         <v>Keyboard/Mouse</v>
       </c>
-      <c r="E3" s="25" t="str" cm="1">
+      <c r="E3" s="24" t="str" cm="1">
         <f t="array" ref="E3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31107,7 +31209,7 @@
 )</f>
         <v>Large Mouse pad</v>
       </c>
-      <c r="F3" s="25" t="str" cm="1">
+      <c r="F3" s="24" t="str" cm="1">
         <f t="array" ref="F3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31122,7 +31224,7 @@
 )</f>
         <v>Mouse</v>
       </c>
-      <c r="G3" s="25" t="str" cm="1">
+      <c r="G3" s="24" t="str" cm="1">
         <f t="array" ref="G3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31137,7 +31239,7 @@
 )</f>
         <v>Mouse Pad</v>
       </c>
-      <c r="H3" s="25" t="str" cm="1">
+      <c r="H3" s="24" t="str" cm="1">
         <f t="array" ref="H3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31152,7 +31254,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I3" s="25" t="str" cm="1">
+      <c r="I3" s="24" t="str" cm="1">
         <f t="array" ref="I3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31167,7 +31269,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J3" s="25" t="str" cm="1">
+      <c r="J3" s="24" t="str" cm="1">
         <f t="array" ref="J3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31182,7 +31284,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K3" s="25" t="str" cm="1">
+      <c r="K3" s="24" t="str" cm="1">
         <f t="array" ref="K3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31205,7 +31307,7 @@
       <c r="C4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="25" t="str" cm="1">
+      <c r="D4" s="24" t="str" cm="1">
         <f t="array" ref="D4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31220,7 +31322,7 @@
 )</f>
         <v>Computer Table</v>
       </c>
-      <c r="E4" s="25" t="str" cm="1">
+      <c r="E4" s="24" t="str" cm="1">
         <f t="array" ref="E4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31235,7 +31337,7 @@
 )</f>
         <v>Laptop Table</v>
       </c>
-      <c r="F4" s="25" t="str" cm="1">
+      <c r="F4" s="24" t="str" cm="1">
         <f t="array" ref="F4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31250,7 +31352,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G4" s="25" t="str" cm="1">
+      <c r="G4" s="24" t="str" cm="1">
         <f t="array" ref="G4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31265,7 +31367,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H4" s="25" t="str" cm="1">
+      <c r="H4" s="24" t="str" cm="1">
         <f t="array" ref="H4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31280,7 +31382,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I4" s="25" t="str" cm="1">
+      <c r="I4" s="24" t="str" cm="1">
         <f t="array" ref="I4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31295,7 +31397,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J4" s="25" t="str" cm="1">
+      <c r="J4" s="24" t="str" cm="1">
         <f t="array" ref="J4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31310,7 +31412,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K4" s="25" t="str" cm="1">
+      <c r="K4" s="24" t="str" cm="1">
         <f t="array" ref="K4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31333,7 +31435,7 @@
       <c r="C5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="25" t="str" cm="1">
+      <c r="D5" s="24" t="str" cm="1">
         <f t="array" ref="D5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31348,7 +31450,7 @@
 )</f>
         <v>Laptop Bag</v>
       </c>
-      <c r="E5" s="25" t="str" cm="1">
+      <c r="E5" s="24" t="str" cm="1">
         <f t="array" ref="E5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31363,7 +31465,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="25" t="str" cm="1">
+      <c r="F5" s="24" t="str" cm="1">
         <f t="array" ref="F5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31378,7 +31480,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G5" s="25" t="str" cm="1">
+      <c r="G5" s="24" t="str" cm="1">
         <f t="array" ref="G5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31393,7 +31495,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H5" s="25" t="str" cm="1">
+      <c r="H5" s="24" t="str" cm="1">
         <f t="array" ref="H5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31408,7 +31510,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I5" s="25" t="str" cm="1">
+      <c r="I5" s="24" t="str" cm="1">
         <f t="array" ref="I5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31423,7 +31525,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J5" s="25" t="str" cm="1">
+      <c r="J5" s="24" t="str" cm="1">
         <f t="array" ref="J5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31438,7 +31540,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K5" s="25" t="str" cm="1">
+      <c r="K5" s="24" t="str" cm="1">
         <f t="array" ref="K5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31461,7 +31563,7 @@
       <c r="C6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="25" t="str" cm="1">
+      <c r="D6" s="24" t="str" cm="1">
         <f t="array" ref="D6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31476,7 +31578,7 @@
 )</f>
         <v>Laptop Brush</v>
       </c>
-      <c r="E6" s="25" t="str" cm="1">
+      <c r="E6" s="24" t="str" cm="1">
         <f t="array" ref="E6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31491,7 +31593,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="25" t="str" cm="1">
+      <c r="F6" s="24" t="str" cm="1">
         <f t="array" ref="F6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31506,7 +31608,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G6" s="25" t="str" cm="1">
+      <c r="G6" s="24" t="str" cm="1">
         <f t="array" ref="G6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31521,7 +31623,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H6" s="25" t="str" cm="1">
+      <c r="H6" s="24" t="str" cm="1">
         <f t="array" ref="H6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31536,7 +31638,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I6" s="25" t="str" cm="1">
+      <c r="I6" s="24" t="str" cm="1">
         <f t="array" ref="I6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31551,7 +31653,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J6" s="25" t="str" cm="1">
+      <c r="J6" s="24" t="str" cm="1">
         <f t="array" ref="J6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31566,7 +31668,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K6" s="25" t="str" cm="1">
+      <c r="K6" s="24" t="str" cm="1">
         <f t="array" ref="K6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31589,7 +31691,7 @@
       <c r="C7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="25" t="str" cm="1">
+      <c r="D7" s="24" t="str" cm="1">
         <f t="array" ref="D7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31604,7 +31706,7 @@
 )</f>
         <v>Laptop Stand</v>
       </c>
-      <c r="E7" s="25" t="str" cm="1">
+      <c r="E7" s="24" t="str" cm="1">
         <f t="array" ref="E7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31619,7 +31721,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="25" t="str" cm="1">
+      <c r="F7" s="24" t="str" cm="1">
         <f t="array" ref="F7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31634,7 +31736,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G7" s="25" t="str" cm="1">
+      <c r="G7" s="24" t="str" cm="1">
         <f t="array" ref="G7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31649,7 +31751,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H7" s="25" t="str" cm="1">
+      <c r="H7" s="24" t="str" cm="1">
         <f t="array" ref="H7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31664,7 +31766,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I7" s="25" t="str" cm="1">
+      <c r="I7" s="24" t="str" cm="1">
         <f t="array" ref="I7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31679,7 +31781,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J7" s="25" t="str" cm="1">
+      <c r="J7" s="24" t="str" cm="1">
         <f t="array" ref="J7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31694,7 +31796,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K7" s="25" t="str" cm="1">
+      <c r="K7" s="24" t="str" cm="1">
         <f t="array" ref="K7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31717,7 +31819,7 @@
       <c r="C8" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="25" t="str" cm="1">
+      <c r="D8" s="24" t="str" cm="1">
         <f t="array" ref="D8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31732,7 +31834,7 @@
 )</f>
         <v>Charger</v>
       </c>
-      <c r="E8" s="25" t="str" cm="1">
+      <c r="E8" s="24" t="str" cm="1">
         <f t="array" ref="E8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31747,7 +31849,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="25" t="str" cm="1">
+      <c r="F8" s="24" t="str" cm="1">
         <f t="array" ref="F8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31762,7 +31864,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G8" s="25" t="str" cm="1">
+      <c r="G8" s="24" t="str" cm="1">
         <f t="array" ref="G8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31777,7 +31879,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H8" s="25" t="str" cm="1">
+      <c r="H8" s="24" t="str" cm="1">
         <f t="array" ref="H8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31792,7 +31894,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I8" s="25" t="str" cm="1">
+      <c r="I8" s="24" t="str" cm="1">
         <f t="array" ref="I8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31807,7 +31909,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J8" s="25" t="str" cm="1">
+      <c r="J8" s="24" t="str" cm="1">
         <f t="array" ref="J8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31822,7 +31924,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K8" s="25" t="str" cm="1">
+      <c r="K8" s="24" t="str" cm="1">
         <f t="array" ref="K8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31845,7 +31947,7 @@
       <c r="C9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="25" t="str" cm="1">
+      <c r="D9" s="24" t="str" cm="1">
         <f t="array" ref="D9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31860,7 +31962,7 @@
 )</f>
         <v>Large Mouse pad</v>
       </c>
-      <c r="E9" s="25" t="str" cm="1">
+      <c r="E9" s="24" t="str" cm="1">
         <f t="array" ref="E9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31875,7 +31977,7 @@
 )</f>
         <v>Mouse Pad</v>
       </c>
-      <c r="F9" s="25" t="str" cm="1">
+      <c r="F9" s="24" t="str" cm="1">
         <f t="array" ref="F9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31890,7 +31992,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G9" s="25" t="str" cm="1">
+      <c r="G9" s="24" t="str" cm="1">
         <f t="array" ref="G9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31905,7 +32007,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H9" s="25" t="str" cm="1">
+      <c r="H9" s="24" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31920,7 +32022,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I9" s="25" t="str" cm="1">
+      <c r="I9" s="24" t="str" cm="1">
         <f t="array" ref="I9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31935,7 +32037,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J9" s="25" t="str" cm="1">
+      <c r="J9" s="24" t="str" cm="1">
         <f t="array" ref="J9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31950,7 +32052,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K9" s="25" t="str" cm="1">
+      <c r="K9" s="24" t="str" cm="1">
         <f t="array" ref="K9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31973,7 +32075,7 @@
       <c r="C10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="25" t="str" cm="1">
+      <c r="D10" s="24" t="str" cm="1">
         <f t="array" ref="D10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -31988,7 +32090,7 @@
 )</f>
         <v>P47 Headphone</v>
       </c>
-      <c r="E10" s="25" t="str" cm="1">
+      <c r="E10" s="24" t="str" cm="1">
         <f t="array" ref="E10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32003,7 +32105,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F10" s="25" t="str" cm="1">
+      <c r="F10" s="24" t="str" cm="1">
         <f t="array" ref="F10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32018,7 +32120,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G10" s="25" t="str" cm="1">
+      <c r="G10" s="24" t="str" cm="1">
         <f t="array" ref="G10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32033,7 +32135,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H10" s="25" t="str" cm="1">
+      <c r="H10" s="24" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32048,7 +32150,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I10" s="25" t="str" cm="1">
+      <c r="I10" s="24" t="str" cm="1">
         <f t="array" ref="I10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32063,7 +32165,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J10" s="25" t="str" cm="1">
+      <c r="J10" s="24" t="str" cm="1">
         <f t="array" ref="J10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32078,7 +32180,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K10" s="25" t="str" cm="1">
+      <c r="K10" s="24" t="str" cm="1">
         <f t="array" ref="K10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32101,7 +32203,7 @@
       <c r="C11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="25" t="str" cm="1">
+      <c r="D11" s="24" t="str" cm="1">
         <f t="array" ref="D11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32116,7 +32218,7 @@
 )</f>
         <v>Helmet</v>
       </c>
-      <c r="E11" s="25" t="str" cm="1">
+      <c r="E11" s="24" t="str" cm="1">
         <f t="array" ref="E11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32131,7 +32233,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F11" s="25" t="str" cm="1">
+      <c r="F11" s="24" t="str" cm="1">
         <f t="array" ref="F11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32146,7 +32248,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G11" s="25" t="str" cm="1">
+      <c r="G11" s="24" t="str" cm="1">
         <f t="array" ref="G11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32161,7 +32263,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H11" s="25" t="str" cm="1">
+      <c r="H11" s="24" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32176,7 +32278,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I11" s="25" t="str" cm="1">
+      <c r="I11" s="24" t="str" cm="1">
         <f t="array" ref="I11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32191,7 +32293,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J11" s="25" t="str" cm="1">
+      <c r="J11" s="24" t="str" cm="1">
         <f t="array" ref="J11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32206,7 +32308,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K11" s="25" t="str" cm="1">
+      <c r="K11" s="24" t="str" cm="1">
         <f t="array" ref="K11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32229,7 +32331,7 @@
       <c r="C12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="25" t="str" cm="1">
+      <c r="D12" s="24" t="str" cm="1">
         <f t="array" ref="D12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32244,7 +32346,7 @@
 )</f>
         <v>1080p Sports Cam</v>
       </c>
-      <c r="E12" s="25" t="str" cm="1">
+      <c r="E12" s="24" t="str" cm="1">
         <f t="array" ref="E12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32259,7 +32361,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F12" s="25" t="str" cm="1">
+      <c r="F12" s="24" t="str" cm="1">
         <f t="array" ref="F12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32274,7 +32376,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G12" s="25" t="str" cm="1">
+      <c r="G12" s="24" t="str" cm="1">
         <f t="array" ref="G12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32289,7 +32391,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H12" s="25" t="str" cm="1">
+      <c r="H12" s="24" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32304,7 +32406,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I12" s="25" t="str" cm="1">
+      <c r="I12" s="24" t="str" cm="1">
         <f t="array" ref="I12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32319,7 +32421,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J12" s="25" t="str" cm="1">
+      <c r="J12" s="24" t="str" cm="1">
         <f t="array" ref="J12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32334,7 +32436,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K12" s="25" t="str" cm="1">
+      <c r="K12" s="24" t="str" cm="1">
         <f t="array" ref="K12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32357,7 +32459,7 @@
       <c r="C13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="25" t="str" cm="1">
+      <c r="D13" s="24" t="str" cm="1">
         <f t="array" ref="D13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32372,7 +32474,7 @@
 )</f>
         <v>Cherry Mobile</v>
       </c>
-      <c r="E13" s="25" t="str" cm="1">
+      <c r="E13" s="24" t="str" cm="1">
         <f t="array" ref="E13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32387,7 +32489,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F13" s="25" t="str" cm="1">
+      <c r="F13" s="24" t="str" cm="1">
         <f t="array" ref="F13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32402,7 +32504,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G13" s="25" t="str" cm="1">
+      <c r="G13" s="24" t="str" cm="1">
         <f t="array" ref="G13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32417,7 +32519,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H13" s="25" t="str" cm="1">
+      <c r="H13" s="24" t="str" cm="1">
         <f t="array" ref="H13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32432,7 +32534,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I13" s="25" t="str" cm="1">
+      <c r="I13" s="24" t="str" cm="1">
         <f t="array" ref="I13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32447,7 +32549,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J13" s="25" t="str" cm="1">
+      <c r="J13" s="24" t="str" cm="1">
         <f t="array" ref="J13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32462,7 +32564,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K13" s="25" t="str" cm="1">
+      <c r="K13" s="24" t="str" cm="1">
         <f t="array" ref="K13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32485,7 +32587,7 @@
       <c r="C14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="25" t="str" cm="1">
+      <c r="D14" s="24" t="str" cm="1">
         <f t="array" ref="D14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32500,7 +32602,7 @@
 )</f>
         <v>VGA</v>
       </c>
-      <c r="E14" s="25" t="str" cm="1">
+      <c r="E14" s="24" t="str" cm="1">
         <f t="array" ref="E14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32515,7 +32617,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F14" s="25" t="str" cm="1">
+      <c r="F14" s="24" t="str" cm="1">
         <f t="array" ref="F14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32530,7 +32632,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G14" s="25" t="str" cm="1">
+      <c r="G14" s="24" t="str" cm="1">
         <f t="array" ref="G14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32545,7 +32647,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H14" s="25" t="str" cm="1">
+      <c r="H14" s="24" t="str" cm="1">
         <f t="array" ref="H14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32560,7 +32662,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I14" s="25" t="str" cm="1">
+      <c r="I14" s="24" t="str" cm="1">
         <f t="array" ref="I14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32575,7 +32677,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J14" s="25" t="str" cm="1">
+      <c r="J14" s="24" t="str" cm="1">
         <f t="array" ref="J14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32590,7 +32692,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K14" s="25" t="str" cm="1">
+      <c r="K14" s="24" t="str" cm="1">
         <f t="array" ref="K14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32613,7 +32715,7 @@
       <c r="C15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="25" t="str" cm="1">
+      <c r="D15" s="24" t="str" cm="1">
         <f t="array" ref="D15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32628,7 +32730,7 @@
 )</f>
         <v>Laminator</v>
       </c>
-      <c r="E15" s="25" t="str" cm="1">
+      <c r="E15" s="24" t="str" cm="1">
         <f t="array" ref="E15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32643,7 +32745,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F15" s="25" t="str" cm="1">
+      <c r="F15" s="24" t="str" cm="1">
         <f t="array" ref="F15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32658,7 +32760,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G15" s="25" t="str" cm="1">
+      <c r="G15" s="24" t="str" cm="1">
         <f t="array" ref="G15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32673,7 +32775,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H15" s="25" t="str" cm="1">
+      <c r="H15" s="24" t="str" cm="1">
         <f t="array" ref="H15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32688,7 +32790,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I15" s="25" t="str" cm="1">
+      <c r="I15" s="24" t="str" cm="1">
         <f t="array" ref="I15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32703,7 +32805,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J15" s="25" t="str" cm="1">
+      <c r="J15" s="24" t="str" cm="1">
         <f t="array" ref="J15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32718,7 +32820,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K15" s="25" t="str" cm="1">
+      <c r="K15" s="24" t="str" cm="1">
         <f t="array" ref="K15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32741,7 +32843,7 @@
       <c r="C16" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="25" t="str" cm="1">
+      <c r="D16" s="24" t="str" cm="1">
         <f t="array" ref="D16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32756,7 +32858,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E16" s="25" t="str" cm="1">
+      <c r="E16" s="24" t="str" cm="1">
         <f t="array" ref="E16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32771,7 +32873,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F16" s="25" t="str" cm="1">
+      <c r="F16" s="24" t="str" cm="1">
         <f t="array" ref="F16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32786,7 +32888,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G16" s="25" t="str" cm="1">
+      <c r="G16" s="24" t="str" cm="1">
         <f t="array" ref="G16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32801,7 +32903,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H16" s="25" t="str" cm="1">
+      <c r="H16" s="24" t="str" cm="1">
         <f t="array" ref="H16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32816,7 +32918,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I16" s="25" t="str" cm="1">
+      <c r="I16" s="24" t="str" cm="1">
         <f t="array" ref="I16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32831,7 +32933,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J16" s="25" t="str" cm="1">
+      <c r="J16" s="24" t="str" cm="1">
         <f t="array" ref="J16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32846,7 +32948,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K16" s="25" t="str" cm="1">
+      <c r="K16" s="24" t="str" cm="1">
         <f t="array" ref="K16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32865,7 +32967,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="25" t="str" cm="1">
+      <c r="D17" s="24" t="str" cm="1">
         <f t="array" ref="D17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32880,7 +32982,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E17" s="25" t="str" cm="1">
+      <c r="E17" s="24" t="str" cm="1">
         <f t="array" ref="E17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32895,7 +32997,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F17" s="25" t="str" cm="1">
+      <c r="F17" s="24" t="str" cm="1">
         <f t="array" ref="F17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32910,7 +33012,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G17" s="25" t="str" cm="1">
+      <c r="G17" s="24" t="str" cm="1">
         <f t="array" ref="G17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32925,7 +33027,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H17" s="25" t="str" cm="1">
+      <c r="H17" s="24" t="str" cm="1">
         <f t="array" ref="H17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32940,7 +33042,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I17" s="25" t="str" cm="1">
+      <c r="I17" s="24" t="str" cm="1">
         <f t="array" ref="I17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32955,7 +33057,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J17" s="25" t="str" cm="1">
+      <c r="J17" s="24" t="str" cm="1">
         <f t="array" ref="J17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32970,7 +33072,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K17" s="25" t="str" cm="1">
+      <c r="K17" s="24" t="str" cm="1">
         <f t="array" ref="K17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -32989,7 +33091,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="25" t="str" cm="1">
+      <c r="D18" s="24" t="str" cm="1">
         <f t="array" ref="D18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33004,7 +33106,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E18" s="25" t="str" cm="1">
+      <c r="E18" s="24" t="str" cm="1">
         <f t="array" ref="E18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33019,7 +33121,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F18" s="25" t="str" cm="1">
+      <c r="F18" s="24" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33034,7 +33136,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G18" s="25" t="str" cm="1">
+      <c r="G18" s="24" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33049,7 +33151,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H18" s="25" t="str" cm="1">
+      <c r="H18" s="24" t="str" cm="1">
         <f t="array" ref="H18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33064,7 +33166,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I18" s="25" t="str" cm="1">
+      <c r="I18" s="24" t="str" cm="1">
         <f t="array" ref="I18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33079,7 +33181,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J18" s="25" t="str" cm="1">
+      <c r="J18" s="24" t="str" cm="1">
         <f t="array" ref="J18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33094,7 +33196,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K18" s="25" t="str" cm="1">
+      <c r="K18" s="24" t="str" cm="1">
         <f t="array" ref="K18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33113,7 +33215,7 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="25" t="str" cm="1">
+      <c r="D19" s="24" t="str" cm="1">
         <f t="array" ref="D19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33128,7 +33230,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E19" s="25" t="str" cm="1">
+      <c r="E19" s="24" t="str" cm="1">
         <f t="array" ref="E19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33143,7 +33245,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F19" s="25" t="str" cm="1">
+      <c r="F19" s="24" t="str" cm="1">
         <f t="array" ref="F19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33158,7 +33260,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G19" s="25" t="str" cm="1">
+      <c r="G19" s="24" t="str" cm="1">
         <f t="array" ref="G19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33173,7 +33275,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H19" s="25" t="str" cm="1">
+      <c r="H19" s="24" t="str" cm="1">
         <f t="array" ref="H19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33188,7 +33290,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I19" s="25" t="str" cm="1">
+      <c r="I19" s="24" t="str" cm="1">
         <f t="array" ref="I19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33203,7 +33305,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J19" s="25" t="str" cm="1">
+      <c r="J19" s="24" t="str" cm="1">
         <f t="array" ref="J19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33218,7 +33320,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K19" s="25" t="str" cm="1">
+      <c r="K19" s="24" t="str" cm="1">
         <f t="array" ref="K19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33237,7 +33339,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="25" t="str" cm="1">
+      <c r="D20" s="24" t="str" cm="1">
         <f t="array" ref="D20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33252,7 +33354,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E20" s="25" t="str" cm="1">
+      <c r="E20" s="24" t="str" cm="1">
         <f t="array" ref="E20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33267,7 +33369,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F20" s="25" t="str" cm="1">
+      <c r="F20" s="24" t="str" cm="1">
         <f t="array" ref="F20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33282,7 +33384,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G20" s="25" t="str" cm="1">
+      <c r="G20" s="24" t="str" cm="1">
         <f t="array" ref="G20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33297,7 +33399,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H20" s="25" t="str" cm="1">
+      <c r="H20" s="24" t="str" cm="1">
         <f t="array" ref="H20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33312,7 +33414,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I20" s="25" t="str" cm="1">
+      <c r="I20" s="24" t="str" cm="1">
         <f t="array" ref="I20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33327,7 +33429,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J20" s="25" t="str" cm="1">
+      <c r="J20" s="24" t="str" cm="1">
         <f t="array" ref="J20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33342,7 +33444,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K20" s="25" t="str" cm="1">
+      <c r="K20" s="24" t="str" cm="1">
         <f t="array" ref="K20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33361,7 +33463,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="25" t="str" cm="1">
+      <c r="D21" s="24" t="str" cm="1">
         <f t="array" ref="D21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33376,7 +33478,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E21" s="25" t="str" cm="1">
+      <c r="E21" s="24" t="str" cm="1">
         <f t="array" ref="E21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33391,7 +33493,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F21" s="25" t="str" cm="1">
+      <c r="F21" s="24" t="str" cm="1">
         <f t="array" ref="F21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33406,7 +33508,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G21" s="25" t="str" cm="1">
+      <c r="G21" s="24" t="str" cm="1">
         <f t="array" ref="G21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33421,7 +33523,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H21" s="25" t="str" cm="1">
+      <c r="H21" s="24" t="str" cm="1">
         <f t="array" ref="H21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33436,7 +33538,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I21" s="25" t="str" cm="1">
+      <c r="I21" s="24" t="str" cm="1">
         <f t="array" ref="I21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33451,7 +33553,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J21" s="25" t="str" cm="1">
+      <c r="J21" s="24" t="str" cm="1">
         <f t="array" ref="J21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33466,7 +33568,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K21" s="25" t="str" cm="1">
+      <c r="K21" s="24" t="str" cm="1">
         <f t="array" ref="K21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33485,7 +33587,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="25" t="str" cm="1">
+      <c r="D22" s="24" t="str" cm="1">
         <f t="array" ref="D22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33500,7 +33602,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E22" s="25" t="str" cm="1">
+      <c r="E22" s="24" t="str" cm="1">
         <f t="array" ref="E22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33515,7 +33617,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F22" s="25" t="str" cm="1">
+      <c r="F22" s="24" t="str" cm="1">
         <f t="array" ref="F22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33530,7 +33632,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G22" s="25" t="str" cm="1">
+      <c r="G22" s="24" t="str" cm="1">
         <f t="array" ref="G22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33545,7 +33647,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H22" s="25" t="str" cm="1">
+      <c r="H22" s="24" t="str" cm="1">
         <f t="array" ref="H22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33560,7 +33662,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I22" s="25" t="str" cm="1">
+      <c r="I22" s="24" t="str" cm="1">
         <f t="array" ref="I22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33575,7 +33677,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J22" s="25" t="str" cm="1">
+      <c r="J22" s="24" t="str" cm="1">
         <f t="array" ref="J22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33590,7 +33692,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K22" s="25" t="str" cm="1">
+      <c r="K22" s="24" t="str" cm="1">
         <f t="array" ref="K22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33609,7 +33711,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="25" t="str" cm="1">
+      <c r="D23" s="24" t="str" cm="1">
         <f t="array" ref="D23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33624,7 +33726,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E23" s="25" t="str" cm="1">
+      <c r="E23" s="24" t="str" cm="1">
         <f t="array" ref="E23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33639,7 +33741,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F23" s="25" t="str" cm="1">
+      <c r="F23" s="24" t="str" cm="1">
         <f t="array" ref="F23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33654,7 +33756,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G23" s="25" t="str" cm="1">
+      <c r="G23" s="24" t="str" cm="1">
         <f t="array" ref="G23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33669,7 +33771,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H23" s="25" t="str" cm="1">
+      <c r="H23" s="24" t="str" cm="1">
         <f t="array" ref="H23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33684,7 +33786,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I23" s="25" t="str" cm="1">
+      <c r="I23" s="24" t="str" cm="1">
         <f t="array" ref="I23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33699,7 +33801,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J23" s="25" t="str" cm="1">
+      <c r="J23" s="24" t="str" cm="1">
         <f t="array" ref="J23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33714,7 +33816,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K23" s="25" t="str" cm="1">
+      <c r="K23" s="24" t="str" cm="1">
         <f t="array" ref="K23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33733,7 +33835,7 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="25" t="str" cm="1">
+      <c r="D24" s="24" t="str" cm="1">
         <f t="array" ref="D24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33748,7 +33850,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E24" s="25" t="str" cm="1">
+      <c r="E24" s="24" t="str" cm="1">
         <f t="array" ref="E24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33763,7 +33865,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F24" s="25" t="str" cm="1">
+      <c r="F24" s="24" t="str" cm="1">
         <f t="array" ref="F24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33778,7 +33880,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G24" s="25" t="str" cm="1">
+      <c r="G24" s="24" t="str" cm="1">
         <f t="array" ref="G24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33793,7 +33895,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H24" s="25" t="str" cm="1">
+      <c r="H24" s="24" t="str" cm="1">
         <f t="array" ref="H24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33808,7 +33910,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I24" s="25" t="str" cm="1">
+      <c r="I24" s="24" t="str" cm="1">
         <f t="array" ref="I24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33823,7 +33925,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J24" s="25" t="str" cm="1">
+      <c r="J24" s="24" t="str" cm="1">
         <f t="array" ref="J24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33838,7 +33940,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K24" s="25" t="str" cm="1">
+      <c r="K24" s="24" t="str" cm="1">
         <f t="array" ref="K24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33857,7 +33959,7 @@
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="25" t="str" cm="1">
+      <c r="D25" s="24" t="str" cm="1">
         <f t="array" ref="D25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33872,7 +33974,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E25" s="25" t="str" cm="1">
+      <c r="E25" s="24" t="str" cm="1">
         <f t="array" ref="E25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33887,7 +33989,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F25" s="25" t="str" cm="1">
+      <c r="F25" s="24" t="str" cm="1">
         <f t="array" ref="F25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33902,7 +34004,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G25" s="25" t="str" cm="1">
+      <c r="G25" s="24" t="str" cm="1">
         <f t="array" ref="G25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33917,7 +34019,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H25" s="25" t="str" cm="1">
+      <c r="H25" s="24" t="str" cm="1">
         <f t="array" ref="H25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33932,7 +34034,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I25" s="25" t="str" cm="1">
+      <c r="I25" s="24" t="str" cm="1">
         <f t="array" ref="I25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33947,7 +34049,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J25" s="25" t="str" cm="1">
+      <c r="J25" s="24" t="str" cm="1">
         <f t="array" ref="J25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33962,7 +34064,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K25" s="25" t="str" cm="1">
+      <c r="K25" s="24" t="str" cm="1">
         <f t="array" ref="K25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33981,7 +34083,7 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="25" t="str" cm="1">
+      <c r="D26" s="24" t="str" cm="1">
         <f t="array" ref="D26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -33996,7 +34098,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E26" s="25" t="str" cm="1">
+      <c r="E26" s="24" t="str" cm="1">
         <f t="array" ref="E26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34011,7 +34113,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F26" s="25" t="str" cm="1">
+      <c r="F26" s="24" t="str" cm="1">
         <f t="array" ref="F26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34026,7 +34128,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G26" s="25" t="str" cm="1">
+      <c r="G26" s="24" t="str" cm="1">
         <f t="array" ref="G26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34041,7 +34143,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H26" s="25" t="str" cm="1">
+      <c r="H26" s="24" t="str" cm="1">
         <f t="array" ref="H26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34056,7 +34158,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I26" s="25" t="str" cm="1">
+      <c r="I26" s="24" t="str" cm="1">
         <f t="array" ref="I26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34071,7 +34173,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J26" s="25" t="str" cm="1">
+      <c r="J26" s="24" t="str" cm="1">
         <f t="array" ref="J26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34086,7 +34188,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K26" s="25" t="str" cm="1">
+      <c r="K26" s="24" t="str" cm="1">
         <f t="array" ref="K26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34105,7 +34207,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="25" t="str" cm="1">
+      <c r="D27" s="24" t="str" cm="1">
         <f t="array" ref="D27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34120,7 +34222,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E27" s="25" t="str" cm="1">
+      <c r="E27" s="24" t="str" cm="1">
         <f t="array" ref="E27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34135,7 +34237,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F27" s="25" t="str" cm="1">
+      <c r="F27" s="24" t="str" cm="1">
         <f t="array" ref="F27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34150,7 +34252,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G27" s="25" t="str" cm="1">
+      <c r="G27" s="24" t="str" cm="1">
         <f t="array" ref="G27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34165,7 +34267,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H27" s="25" t="str" cm="1">
+      <c r="H27" s="24" t="str" cm="1">
         <f t="array" ref="H27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34180,7 +34282,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I27" s="25" t="str" cm="1">
+      <c r="I27" s="24" t="str" cm="1">
         <f t="array" ref="I27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34195,7 +34297,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J27" s="25" t="str" cm="1">
+      <c r="J27" s="24" t="str" cm="1">
         <f t="array" ref="J27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34210,7 +34312,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K27" s="25" t="str" cm="1">
+      <c r="K27" s="24" t="str" cm="1">
         <f t="array" ref="K27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34229,7 +34331,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="25" t="str" cm="1">
+      <c r="D28" s="24" t="str" cm="1">
         <f t="array" ref="D28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34244,7 +34346,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E28" s="25" t="str" cm="1">
+      <c r="E28" s="24" t="str" cm="1">
         <f t="array" ref="E28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34259,7 +34361,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F28" s="25" t="str" cm="1">
+      <c r="F28" s="24" t="str" cm="1">
         <f t="array" ref="F28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34274,7 +34376,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G28" s="25" t="str" cm="1">
+      <c r="G28" s="24" t="str" cm="1">
         <f t="array" ref="G28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34289,7 +34391,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H28" s="25" t="str" cm="1">
+      <c r="H28" s="24" t="str" cm="1">
         <f t="array" ref="H28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34304,7 +34406,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I28" s="25" t="str" cm="1">
+      <c r="I28" s="24" t="str" cm="1">
         <f t="array" ref="I28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34319,7 +34421,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J28" s="25" t="str" cm="1">
+      <c r="J28" s="24" t="str" cm="1">
         <f t="array" ref="J28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34334,7 +34436,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K28" s="25" t="str" cm="1">
+      <c r="K28" s="24" t="str" cm="1">
         <f t="array" ref="K28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34353,7 +34455,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="25" t="str" cm="1">
+      <c r="D29" s="24" t="str" cm="1">
         <f t="array" ref="D29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34368,7 +34470,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E29" s="25" t="str" cm="1">
+      <c r="E29" s="24" t="str" cm="1">
         <f t="array" ref="E29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34383,7 +34485,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F29" s="25" t="str" cm="1">
+      <c r="F29" s="24" t="str" cm="1">
         <f t="array" ref="F29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34398,7 +34500,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G29" s="25" t="str" cm="1">
+      <c r="G29" s="24" t="str" cm="1">
         <f t="array" ref="G29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34413,7 +34515,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H29" s="25" t="str" cm="1">
+      <c r="H29" s="24" t="str" cm="1">
         <f t="array" ref="H29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34428,7 +34530,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I29" s="25" t="str" cm="1">
+      <c r="I29" s="24" t="str" cm="1">
         <f t="array" ref="I29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34443,7 +34545,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J29" s="25" t="str" cm="1">
+      <c r="J29" s="24" t="str" cm="1">
         <f t="array" ref="J29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34458,7 +34560,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K29" s="25" t="str" cm="1">
+      <c r="K29" s="24" t="str" cm="1">
         <f t="array" ref="K29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34477,7 +34579,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="25" t="str" cm="1">
+      <c r="D30" s="24" t="str" cm="1">
         <f t="array" ref="D30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34492,7 +34594,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E30" s="25" t="str" cm="1">
+      <c r="E30" s="24" t="str" cm="1">
         <f t="array" ref="E30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34507,7 +34609,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F30" s="25" t="str" cm="1">
+      <c r="F30" s="24" t="str" cm="1">
         <f t="array" ref="F30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34522,7 +34624,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G30" s="25" t="str" cm="1">
+      <c r="G30" s="24" t="str" cm="1">
         <f t="array" ref="G30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34537,7 +34639,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H30" s="25" t="str" cm="1">
+      <c r="H30" s="24" t="str" cm="1">
         <f t="array" ref="H30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34552,7 +34654,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I30" s="25" t="str" cm="1">
+      <c r="I30" s="24" t="str" cm="1">
         <f t="array" ref="I30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34567,7 +34669,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J30" s="25" t="str" cm="1">
+      <c r="J30" s="24" t="str" cm="1">
         <f t="array" ref="J30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34582,7 +34684,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K30" s="25" t="str" cm="1">
+      <c r="K30" s="24" t="str" cm="1">
         <f t="array" ref="K30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34601,7 +34703,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="25" t="str" cm="1">
+      <c r="D31" s="24" t="str" cm="1">
         <f t="array" ref="D31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34616,7 +34718,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E31" s="25" t="str" cm="1">
+      <c r="E31" s="24" t="str" cm="1">
         <f t="array" ref="E31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34631,7 +34733,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F31" s="25" t="str" cm="1">
+      <c r="F31" s="24" t="str" cm="1">
         <f t="array" ref="F31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34646,7 +34748,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G31" s="25" t="str" cm="1">
+      <c r="G31" s="24" t="str" cm="1">
         <f t="array" ref="G31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34661,7 +34763,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H31" s="25" t="str" cm="1">
+      <c r="H31" s="24" t="str" cm="1">
         <f t="array" ref="H31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34676,7 +34778,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I31" s="25" t="str" cm="1">
+      <c r="I31" s="24" t="str" cm="1">
         <f t="array" ref="I31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34691,7 +34793,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J31" s="25" t="str" cm="1">
+      <c r="J31" s="24" t="str" cm="1">
         <f t="array" ref="J31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34706,7 +34808,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K31" s="25" t="str" cm="1">
+      <c r="K31" s="24" t="str" cm="1">
         <f t="array" ref="K31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34725,7 +34827,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="25" t="str" cm="1">
+      <c r="D32" s="24" t="str" cm="1">
         <f t="array" ref="D32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34740,7 +34842,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E32" s="25" t="str" cm="1">
+      <c r="E32" s="24" t="str" cm="1">
         <f t="array" ref="E32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34755,7 +34857,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F32" s="25" t="str" cm="1">
+      <c r="F32" s="24" t="str" cm="1">
         <f t="array" ref="F32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34770,7 +34872,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G32" s="25" t="str" cm="1">
+      <c r="G32" s="24" t="str" cm="1">
         <f t="array" ref="G32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34785,7 +34887,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H32" s="25" t="str" cm="1">
+      <c r="H32" s="24" t="str" cm="1">
         <f t="array" ref="H32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34800,7 +34902,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I32" s="25" t="str" cm="1">
+      <c r="I32" s="24" t="str" cm="1">
         <f t="array" ref="I32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34815,7 +34917,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J32" s="25" t="str" cm="1">
+      <c r="J32" s="24" t="str" cm="1">
         <f t="array" ref="J32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34830,7 +34932,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K32" s="25" t="str" cm="1">
+      <c r="K32" s="24" t="str" cm="1">
         <f t="array" ref="K32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34849,7 +34951,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="25" t="str" cm="1">
+      <c r="D33" s="24" t="str" cm="1">
         <f t="array" ref="D33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34864,7 +34966,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E33" s="25" t="str" cm="1">
+      <c r="E33" s="24" t="str" cm="1">
         <f t="array" ref="E33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34879,7 +34981,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F33" s="25" t="str" cm="1">
+      <c r="F33" s="24" t="str" cm="1">
         <f t="array" ref="F33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34894,7 +34996,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G33" s="25" t="str" cm="1">
+      <c r="G33" s="24" t="str" cm="1">
         <f t="array" ref="G33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34909,7 +35011,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H33" s="25" t="str" cm="1">
+      <c r="H33" s="24" t="str" cm="1">
         <f t="array" ref="H33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34924,7 +35026,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I33" s="25" t="str" cm="1">
+      <c r="I33" s="24" t="str" cm="1">
         <f t="array" ref="I33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34939,7 +35041,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J33" s="25" t="str" cm="1">
+      <c r="J33" s="24" t="str" cm="1">
         <f t="array" ref="J33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34954,7 +35056,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K33" s="25" t="str" cm="1">
+      <c r="K33" s="24" t="str" cm="1">
         <f t="array" ref="K33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34987,10 +35089,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AE20E-7F3B-4B99-B7CE-E7F8F3E42D03}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34999,70 +35101,110 @@
     <col min="3" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="str">
         <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
-        <v>COUNT: 4</v>
+        <v>COUNT: 5</v>
       </c>
       <c r="C12" s="14"/>
     </row>
@@ -35132,7 +35274,7 @@
       <c r="C3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="26" t="str" cm="1">
+      <c r="D3" s="25" t="str" cm="1">
         <f t="array" ref="D3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35147,7 +35289,7 @@
 )</f>
         <v>Keyboard/Mouse</v>
       </c>
-      <c r="E3" s="26" t="str" cm="1">
+      <c r="E3" s="25" t="str" cm="1">
         <f t="array" ref="E3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35162,7 +35304,7 @@
 )</f>
         <v>Large Mouse pad</v>
       </c>
-      <c r="F3" s="26" t="str" cm="1">
+      <c r="F3" s="25" t="str" cm="1">
         <f t="array" ref="F3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35177,7 +35319,7 @@
 )</f>
         <v>Mouse</v>
       </c>
-      <c r="G3" s="26" t="str" cm="1">
+      <c r="G3" s="25" t="str" cm="1">
         <f t="array" ref="G3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35192,7 +35334,7 @@
 )</f>
         <v>Mouse Pad</v>
       </c>
-      <c r="H3" s="26" t="str" cm="1">
+      <c r="H3" s="25" t="str" cm="1">
         <f t="array" ref="H3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35207,7 +35349,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I3" s="26" t="str" cm="1">
+      <c r="I3" s="25" t="str" cm="1">
         <f t="array" ref="I3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35222,7 +35364,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J3" s="26" t="str" cm="1">
+      <c r="J3" s="25" t="str" cm="1">
         <f t="array" ref="J3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35237,7 +35379,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K3" s="26" t="str" cm="1">
+      <c r="K3" s="25" t="str" cm="1">
         <f t="array" ref="K3">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35260,7 +35402,7 @@
       <c r="C4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="26" t="str" cm="1">
+      <c r="D4" s="25" t="str" cm="1">
         <f t="array" ref="D4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35275,7 +35417,7 @@
 )</f>
         <v>Laptop Table</v>
       </c>
-      <c r="E4" s="26" t="str" cm="1">
+      <c r="E4" s="25" t="str" cm="1">
         <f t="array" ref="E4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35290,7 +35432,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F4" s="26" t="str" cm="1">
+      <c r="F4" s="25" t="str" cm="1">
         <f t="array" ref="F4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35305,7 +35447,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G4" s="26" t="str" cm="1">
+      <c r="G4" s="25" t="str" cm="1">
         <f t="array" ref="G4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35320,7 +35462,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H4" s="26" t="str" cm="1">
+      <c r="H4" s="25" t="str" cm="1">
         <f t="array" ref="H4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35335,7 +35477,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I4" s="26" t="str" cm="1">
+      <c r="I4" s="25" t="str" cm="1">
         <f t="array" ref="I4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35350,7 +35492,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J4" s="26" t="str" cm="1">
+      <c r="J4" s="25" t="str" cm="1">
         <f t="array" ref="J4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35365,7 +35507,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K4" s="26" t="str" cm="1">
+      <c r="K4" s="25" t="str" cm="1">
         <f t="array" ref="K4">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35388,7 +35530,7 @@
       <c r="C5" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="26" t="str" cm="1">
+      <c r="D5" s="25" t="str" cm="1">
         <f t="array" ref="D5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35403,7 +35545,7 @@
 )</f>
         <v>Laptop Bag</v>
       </c>
-      <c r="E5" s="26" t="str" cm="1">
+      <c r="E5" s="25" t="str" cm="1">
         <f t="array" ref="E5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35418,7 +35560,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F5" s="26" t="str" cm="1">
+      <c r="F5" s="25" t="str" cm="1">
         <f t="array" ref="F5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35433,7 +35575,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G5" s="26" t="str" cm="1">
+      <c r="G5" s="25" t="str" cm="1">
         <f t="array" ref="G5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35448,7 +35590,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H5" s="26" t="str" cm="1">
+      <c r="H5" s="25" t="str" cm="1">
         <f t="array" ref="H5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35463,7 +35605,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I5" s="26" t="str" cm="1">
+      <c r="I5" s="25" t="str" cm="1">
         <f t="array" ref="I5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35478,7 +35620,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J5" s="26" t="str" cm="1">
+      <c r="J5" s="25" t="str" cm="1">
         <f t="array" ref="J5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35493,7 +35635,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K5" s="26" t="str" cm="1">
+      <c r="K5" s="25" t="str" cm="1">
         <f t="array" ref="K5">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35516,7 +35658,7 @@
       <c r="C6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="26" t="str" cm="1">
+      <c r="D6" s="25" t="str" cm="1">
         <f t="array" ref="D6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35531,7 +35673,7 @@
 )</f>
         <v>Laptop Brush</v>
       </c>
-      <c r="E6" s="26" t="str" cm="1">
+      <c r="E6" s="25" t="str" cm="1">
         <f t="array" ref="E6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35546,7 +35688,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F6" s="26" t="str" cm="1">
+      <c r="F6" s="25" t="str" cm="1">
         <f t="array" ref="F6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35561,7 +35703,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G6" s="26" t="str" cm="1">
+      <c r="G6" s="25" t="str" cm="1">
         <f t="array" ref="G6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35576,7 +35718,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H6" s="26" t="str" cm="1">
+      <c r="H6" s="25" t="str" cm="1">
         <f t="array" ref="H6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35591,7 +35733,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I6" s="26" t="str" cm="1">
+      <c r="I6" s="25" t="str" cm="1">
         <f t="array" ref="I6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35606,7 +35748,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J6" s="26" t="str" cm="1">
+      <c r="J6" s="25" t="str" cm="1">
         <f t="array" ref="J6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35621,7 +35763,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K6" s="26" t="str" cm="1">
+      <c r="K6" s="25" t="str" cm="1">
         <f t="array" ref="K6">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35644,7 +35786,7 @@
       <c r="C7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="26" t="str" cm="1">
+      <c r="D7" s="25" t="str" cm="1">
         <f t="array" ref="D7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35659,7 +35801,7 @@
 )</f>
         <v>Laptop Stand</v>
       </c>
-      <c r="E7" s="26" t="str" cm="1">
+      <c r="E7" s="25" t="str" cm="1">
         <f t="array" ref="E7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35674,7 +35816,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F7" s="26" t="str" cm="1">
+      <c r="F7" s="25" t="str" cm="1">
         <f t="array" ref="F7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35689,7 +35831,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G7" s="26" t="str" cm="1">
+      <c r="G7" s="25" t="str" cm="1">
         <f t="array" ref="G7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35704,7 +35846,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H7" s="26" t="str" cm="1">
+      <c r="H7" s="25" t="str" cm="1">
         <f t="array" ref="H7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35719,7 +35861,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str" cm="1">
+      <c r="I7" s="25" t="str" cm="1">
         <f t="array" ref="I7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35734,7 +35876,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J7" s="26" t="str" cm="1">
+      <c r="J7" s="25" t="str" cm="1">
         <f t="array" ref="J7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35749,7 +35891,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K7" s="26" t="str" cm="1">
+      <c r="K7" s="25" t="str" cm="1">
         <f t="array" ref="K7">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35772,7 +35914,7 @@
       <c r="C8" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="26" t="str" cm="1">
+      <c r="D8" s="25" t="str" cm="1">
         <f t="array" ref="D8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35787,7 +35929,7 @@
 )</f>
         <v>Charger</v>
       </c>
-      <c r="E8" s="26" t="str" cm="1">
+      <c r="E8" s="25" t="str" cm="1">
         <f t="array" ref="E8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35802,7 +35944,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F8" s="26" t="str" cm="1">
+      <c r="F8" s="25" t="str" cm="1">
         <f t="array" ref="F8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35817,7 +35959,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G8" s="26" t="str" cm="1">
+      <c r="G8" s="25" t="str" cm="1">
         <f t="array" ref="G8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35832,7 +35974,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H8" s="26" t="str" cm="1">
+      <c r="H8" s="25" t="str" cm="1">
         <f t="array" ref="H8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35847,7 +35989,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str" cm="1">
+      <c r="I8" s="25" t="str" cm="1">
         <f t="array" ref="I8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35862,7 +36004,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J8" s="26" t="str" cm="1">
+      <c r="J8" s="25" t="str" cm="1">
         <f t="array" ref="J8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35877,7 +36019,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K8" s="26" t="str" cm="1">
+      <c r="K8" s="25" t="str" cm="1">
         <f t="array" ref="K8">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35900,7 +36042,7 @@
       <c r="C9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="26" t="str" cm="1">
+      <c r="D9" s="25" t="str" cm="1">
         <f t="array" ref="D9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35915,7 +36057,7 @@
 )</f>
         <v>Large Mouse pad</v>
       </c>
-      <c r="E9" s="26" t="str" cm="1">
+      <c r="E9" s="25" t="str" cm="1">
         <f t="array" ref="E9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35930,7 +36072,7 @@
 )</f>
         <v>Mouse Pad</v>
       </c>
-      <c r="F9" s="26" t="str" cm="1">
+      <c r="F9" s="25" t="str" cm="1">
         <f t="array" ref="F9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35945,7 +36087,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G9" s="26" t="str" cm="1">
+      <c r="G9" s="25" t="str" cm="1">
         <f t="array" ref="G9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35960,7 +36102,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H9" s="26" t="str" cm="1">
+      <c r="H9" s="25" t="str" cm="1">
         <f t="array" ref="H9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35975,7 +36117,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str" cm="1">
+      <c r="I9" s="25" t="str" cm="1">
         <f t="array" ref="I9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -35990,7 +36132,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J9" s="26" t="str" cm="1">
+      <c r="J9" s="25" t="str" cm="1">
         <f t="array" ref="J9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36005,7 +36147,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K9" s="26" t="str" cm="1">
+      <c r="K9" s="25" t="str" cm="1">
         <f t="array" ref="K9">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36028,7 +36170,7 @@
       <c r="C10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="26" t="str" cm="1">
+      <c r="D10" s="25" t="str" cm="1">
         <f t="array" ref="D10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36043,7 +36185,7 @@
 )</f>
         <v>P47 Headphone</v>
       </c>
-      <c r="E10" s="26" t="str" cm="1">
+      <c r="E10" s="25" t="str" cm="1">
         <f t="array" ref="E10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36058,7 +36200,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F10" s="26" t="str" cm="1">
+      <c r="F10" s="25" t="str" cm="1">
         <f t="array" ref="F10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36073,7 +36215,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G10" s="26" t="str" cm="1">
+      <c r="G10" s="25" t="str" cm="1">
         <f t="array" ref="G10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36088,7 +36230,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H10" s="26" t="str" cm="1">
+      <c r="H10" s="25" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36103,7 +36245,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str" cm="1">
+      <c r="I10" s="25" t="str" cm="1">
         <f t="array" ref="I10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36118,7 +36260,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J10" s="26" t="str" cm="1">
+      <c r="J10" s="25" t="str" cm="1">
         <f t="array" ref="J10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36133,7 +36275,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K10" s="26" t="str" cm="1">
+      <c r="K10" s="25" t="str" cm="1">
         <f t="array" ref="K10">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36156,7 +36298,7 @@
       <c r="C11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="26" t="str" cm="1">
+      <c r="D11" s="25" t="str" cm="1">
         <f t="array" ref="D11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36171,7 +36313,7 @@
 )</f>
         <v>Helmet</v>
       </c>
-      <c r="E11" s="26" t="str" cm="1">
+      <c r="E11" s="25" t="str" cm="1">
         <f t="array" ref="E11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36186,7 +36328,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F11" s="26" t="str" cm="1">
+      <c r="F11" s="25" t="str" cm="1">
         <f t="array" ref="F11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36201,7 +36343,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G11" s="26" t="str" cm="1">
+      <c r="G11" s="25" t="str" cm="1">
         <f t="array" ref="G11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36216,7 +36358,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H11" s="26" t="str" cm="1">
+      <c r="H11" s="25" t="str" cm="1">
         <f t="array" ref="H11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36231,7 +36373,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I11" s="26" t="str" cm="1">
+      <c r="I11" s="25" t="str" cm="1">
         <f t="array" ref="I11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36246,7 +36388,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J11" s="26" t="str" cm="1">
+      <c r="J11" s="25" t="str" cm="1">
         <f t="array" ref="J11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36261,7 +36403,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K11" s="26" t="str" cm="1">
+      <c r="K11" s="25" t="str" cm="1">
         <f t="array" ref="K11">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36284,7 +36426,7 @@
       <c r="C12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="26" t="str" cm="1">
+      <c r="D12" s="25" t="str" cm="1">
         <f t="array" ref="D12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36299,7 +36441,7 @@
 )</f>
         <v>1080p Sports Cam</v>
       </c>
-      <c r="E12" s="26" t="str" cm="1">
+      <c r="E12" s="25" t="str" cm="1">
         <f t="array" ref="E12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36314,7 +36456,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F12" s="26" t="str" cm="1">
+      <c r="F12" s="25" t="str" cm="1">
         <f t="array" ref="F12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36329,7 +36471,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G12" s="26" t="str" cm="1">
+      <c r="G12" s="25" t="str" cm="1">
         <f t="array" ref="G12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36344,7 +36486,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H12" s="26" t="str" cm="1">
+      <c r="H12" s="25" t="str" cm="1">
         <f t="array" ref="H12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36359,7 +36501,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str" cm="1">
+      <c r="I12" s="25" t="str" cm="1">
         <f t="array" ref="I12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36374,7 +36516,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J12" s="26" t="str" cm="1">
+      <c r="J12" s="25" t="str" cm="1">
         <f t="array" ref="J12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36389,7 +36531,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K12" s="26" t="str" cm="1">
+      <c r="K12" s="25" t="str" cm="1">
         <f t="array" ref="K12">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36412,7 +36554,7 @@
       <c r="C13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="26" t="str" cm="1">
+      <c r="D13" s="25" t="str" cm="1">
         <f t="array" ref="D13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36427,7 +36569,7 @@
 )</f>
         <v>Cherry Mobile</v>
       </c>
-      <c r="E13" s="26" t="str" cm="1">
+      <c r="E13" s="25" t="str" cm="1">
         <f t="array" ref="E13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36442,7 +36584,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F13" s="26" t="str" cm="1">
+      <c r="F13" s="25" t="str" cm="1">
         <f t="array" ref="F13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36457,7 +36599,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G13" s="26" t="str" cm="1">
+      <c r="G13" s="25" t="str" cm="1">
         <f t="array" ref="G13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36472,7 +36614,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H13" s="26" t="str" cm="1">
+      <c r="H13" s="25" t="str" cm="1">
         <f t="array" ref="H13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36487,7 +36629,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I13" s="26" t="str" cm="1">
+      <c r="I13" s="25" t="str" cm="1">
         <f t="array" ref="I13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36502,7 +36644,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J13" s="26" t="str" cm="1">
+      <c r="J13" s="25" t="str" cm="1">
         <f t="array" ref="J13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36517,7 +36659,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K13" s="26" t="str" cm="1">
+      <c r="K13" s="25" t="str" cm="1">
         <f t="array" ref="K13">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36540,7 +36682,7 @@
       <c r="C14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="26" t="str" cm="1">
+      <c r="D14" s="25" t="str" cm="1">
         <f t="array" ref="D14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36555,7 +36697,7 @@
 )</f>
         <v>VGA</v>
       </c>
-      <c r="E14" s="26" t="str" cm="1">
+      <c r="E14" s="25" t="str" cm="1">
         <f t="array" ref="E14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36570,7 +36712,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F14" s="26" t="str" cm="1">
+      <c r="F14" s="25" t="str" cm="1">
         <f t="array" ref="F14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36585,7 +36727,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G14" s="26" t="str" cm="1">
+      <c r="G14" s="25" t="str" cm="1">
         <f t="array" ref="G14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36600,7 +36742,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H14" s="26" t="str" cm="1">
+      <c r="H14" s="25" t="str" cm="1">
         <f t="array" ref="H14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36615,7 +36757,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str" cm="1">
+      <c r="I14" s="25" t="str" cm="1">
         <f t="array" ref="I14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36630,7 +36772,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J14" s="26" t="str" cm="1">
+      <c r="J14" s="25" t="str" cm="1">
         <f t="array" ref="J14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36645,7 +36787,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K14" s="26" t="str" cm="1">
+      <c r="K14" s="25" t="str" cm="1">
         <f t="array" ref="K14">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36668,7 +36810,7 @@
       <c r="C15" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="26" t="str" cm="1">
+      <c r="D15" s="25" t="str" cm="1">
         <f t="array" ref="D15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36683,7 +36825,7 @@
 )</f>
         <v>Laminator</v>
       </c>
-      <c r="E15" s="26" t="str" cm="1">
+      <c r="E15" s="25" t="str" cm="1">
         <f t="array" ref="E15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36698,7 +36840,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F15" s="26" t="str" cm="1">
+      <c r="F15" s="25" t="str" cm="1">
         <f t="array" ref="F15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36713,7 +36855,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G15" s="26" t="str" cm="1">
+      <c r="G15" s="25" t="str" cm="1">
         <f t="array" ref="G15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36728,7 +36870,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H15" s="26" t="str" cm="1">
+      <c r="H15" s="25" t="str" cm="1">
         <f t="array" ref="H15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36743,7 +36885,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str" cm="1">
+      <c r="I15" s="25" t="str" cm="1">
         <f t="array" ref="I15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36758,7 +36900,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J15" s="26" t="str" cm="1">
+      <c r="J15" s="25" t="str" cm="1">
         <f t="array" ref="J15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36773,7 +36915,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K15" s="26" t="str" cm="1">
+      <c r="K15" s="25" t="str" cm="1">
         <f t="array" ref="K15">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36796,7 +36938,7 @@
       <c r="C16" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="26" t="str" cm="1">
+      <c r="D16" s="25" t="str" cm="1">
         <f t="array" ref="D16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36811,7 +36953,7 @@
 )</f>
         <v/>
       </c>
-      <c r="E16" s="26" t="str" cm="1">
+      <c r="E16" s="25" t="str" cm="1">
         <f t="array" ref="E16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36826,7 +36968,7 @@
 )</f>
         <v/>
       </c>
-      <c r="F16" s="26" t="str" cm="1">
+      <c r="F16" s="25" t="str" cm="1">
         <f t="array" ref="F16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36841,7 +36983,7 @@
 )</f>
         <v/>
       </c>
-      <c r="G16" s="26" t="str" cm="1">
+      <c r="G16" s="25" t="str" cm="1">
         <f t="array" ref="G16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36856,7 +36998,7 @@
 )</f>
         <v/>
       </c>
-      <c r="H16" s="26" t="str" cm="1">
+      <c r="H16" s="25" t="str" cm="1">
         <f t="array" ref="H16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36871,7 +37013,7 @@
 )</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str" cm="1">
+      <c r="I16" s="25" t="str" cm="1">
         <f t="array" ref="I16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36886,7 +37028,7 @@
 )</f>
         <v/>
       </c>
-      <c r="J16" s="26" t="str" cm="1">
+      <c r="J16" s="25" t="str" cm="1">
         <f t="array" ref="J16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36901,7 +37043,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K16" s="26" t="str" cm="1">
+      <c r="K16" s="25" t="str" cm="1">
         <f t="array" ref="K16">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36920,7 +37062,7 @@
     <row r="17" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="26" t="str" cm="1">
+      <c r="D17" s="25" t="str" cm="1">
         <f t="array" ref="D17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36935,7 +37077,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E17" s="26" t="str" cm="1">
+      <c r="E17" s="25" t="str" cm="1">
         <f t="array" ref="E17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36950,7 +37092,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F17" s="26" t="str" cm="1">
+      <c r="F17" s="25" t="str" cm="1">
         <f t="array" ref="F17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36965,7 +37107,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G17" s="26" t="str" cm="1">
+      <c r="G17" s="25" t="str" cm="1">
         <f t="array" ref="G17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36980,7 +37122,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H17" s="26" t="str" cm="1">
+      <c r="H17" s="25" t="str" cm="1">
         <f t="array" ref="H17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -36995,7 +37137,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I17" s="26" t="str" cm="1">
+      <c r="I17" s="25" t="str" cm="1">
         <f t="array" ref="I17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37010,7 +37152,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J17" s="26" t="str" cm="1">
+      <c r="J17" s="25" t="str" cm="1">
         <f t="array" ref="J17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37025,7 +37167,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K17" s="26" t="str" cm="1">
+      <c r="K17" s="25" t="str" cm="1">
         <f t="array" ref="K17">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37044,7 +37186,7 @@
     <row r="18" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="26" t="str" cm="1">
+      <c r="D18" s="25" t="str" cm="1">
         <f t="array" ref="D18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37059,7 +37201,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E18" s="26" t="str" cm="1">
+      <c r="E18" s="25" t="str" cm="1">
         <f t="array" ref="E18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37074,7 +37216,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F18" s="26" t="str" cm="1">
+      <c r="F18" s="25" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37089,7 +37231,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G18" s="26" t="str" cm="1">
+      <c r="G18" s="25" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37104,7 +37246,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H18" s="26" t="str" cm="1">
+      <c r="H18" s="25" t="str" cm="1">
         <f t="array" ref="H18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37119,7 +37261,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I18" s="26" t="str" cm="1">
+      <c r="I18" s="25" t="str" cm="1">
         <f t="array" ref="I18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37134,7 +37276,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J18" s="26" t="str" cm="1">
+      <c r="J18" s="25" t="str" cm="1">
         <f t="array" ref="J18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37149,7 +37291,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K18" s="26" t="str" cm="1">
+      <c r="K18" s="25" t="str" cm="1">
         <f t="array" ref="K18">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37168,7 +37310,7 @@
     <row r="19" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="26" t="str" cm="1">
+      <c r="D19" s="25" t="str" cm="1">
         <f t="array" ref="D19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37183,7 +37325,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E19" s="26" t="str" cm="1">
+      <c r="E19" s="25" t="str" cm="1">
         <f t="array" ref="E19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37198,7 +37340,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F19" s="26" t="str" cm="1">
+      <c r="F19" s="25" t="str" cm="1">
         <f t="array" ref="F19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37213,7 +37355,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G19" s="26" t="str" cm="1">
+      <c r="G19" s="25" t="str" cm="1">
         <f t="array" ref="G19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37228,7 +37370,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H19" s="26" t="str" cm="1">
+      <c r="H19" s="25" t="str" cm="1">
         <f t="array" ref="H19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37243,7 +37385,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I19" s="26" t="str" cm="1">
+      <c r="I19" s="25" t="str" cm="1">
         <f t="array" ref="I19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37258,7 +37400,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J19" s="26" t="str" cm="1">
+      <c r="J19" s="25" t="str" cm="1">
         <f t="array" ref="J19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37273,7 +37415,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K19" s="26" t="str" cm="1">
+      <c r="K19" s="25" t="str" cm="1">
         <f t="array" ref="K19">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37292,7 +37434,7 @@
     <row r="20" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="26" t="str" cm="1">
+      <c r="D20" s="25" t="str" cm="1">
         <f t="array" ref="D20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37307,7 +37449,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E20" s="26" t="str" cm="1">
+      <c r="E20" s="25" t="str" cm="1">
         <f t="array" ref="E20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37322,7 +37464,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F20" s="26" t="str" cm="1">
+      <c r="F20" s="25" t="str" cm="1">
         <f t="array" ref="F20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37337,7 +37479,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G20" s="26" t="str" cm="1">
+      <c r="G20" s="25" t="str" cm="1">
         <f t="array" ref="G20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37352,7 +37494,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H20" s="26" t="str" cm="1">
+      <c r="H20" s="25" t="str" cm="1">
         <f t="array" ref="H20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37367,7 +37509,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I20" s="26" t="str" cm="1">
+      <c r="I20" s="25" t="str" cm="1">
         <f t="array" ref="I20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37382,7 +37524,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J20" s="26" t="str" cm="1">
+      <c r="J20" s="25" t="str" cm="1">
         <f t="array" ref="J20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37397,7 +37539,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K20" s="26" t="str" cm="1">
+      <c r="K20" s="25" t="str" cm="1">
         <f t="array" ref="K20">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37416,7 +37558,7 @@
     <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="26" t="str" cm="1">
+      <c r="D21" s="25" t="str" cm="1">
         <f t="array" ref="D21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37431,7 +37573,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E21" s="26" t="str" cm="1">
+      <c r="E21" s="25" t="str" cm="1">
         <f t="array" ref="E21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37446,7 +37588,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F21" s="26" t="str" cm="1">
+      <c r="F21" s="25" t="str" cm="1">
         <f t="array" ref="F21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37461,7 +37603,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G21" s="26" t="str" cm="1">
+      <c r="G21" s="25" t="str" cm="1">
         <f t="array" ref="G21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37476,7 +37618,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H21" s="26" t="str" cm="1">
+      <c r="H21" s="25" t="str" cm="1">
         <f t="array" ref="H21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37491,7 +37633,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I21" s="26" t="str" cm="1">
+      <c r="I21" s="25" t="str" cm="1">
         <f t="array" ref="I21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37506,7 +37648,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J21" s="26" t="str" cm="1">
+      <c r="J21" s="25" t="str" cm="1">
         <f t="array" ref="J21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37521,7 +37663,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K21" s="26" t="str" cm="1">
+      <c r="K21" s="25" t="str" cm="1">
         <f t="array" ref="K21">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37540,7 +37682,7 @@
     <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="26" t="str" cm="1">
+      <c r="D22" s="25" t="str" cm="1">
         <f t="array" ref="D22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37555,7 +37697,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E22" s="26" t="str" cm="1">
+      <c r="E22" s="25" t="str" cm="1">
         <f t="array" ref="E22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37570,7 +37712,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F22" s="26" t="str" cm="1">
+      <c r="F22" s="25" t="str" cm="1">
         <f t="array" ref="F22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37585,7 +37727,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G22" s="26" t="str" cm="1">
+      <c r="G22" s="25" t="str" cm="1">
         <f t="array" ref="G22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37600,7 +37742,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H22" s="26" t="str" cm="1">
+      <c r="H22" s="25" t="str" cm="1">
         <f t="array" ref="H22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37615,7 +37757,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I22" s="26" t="str" cm="1">
+      <c r="I22" s="25" t="str" cm="1">
         <f t="array" ref="I22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37630,7 +37772,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J22" s="26" t="str" cm="1">
+      <c r="J22" s="25" t="str" cm="1">
         <f t="array" ref="J22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37645,7 +37787,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K22" s="26" t="str" cm="1">
+      <c r="K22" s="25" t="str" cm="1">
         <f t="array" ref="K22">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37664,7 +37806,7 @@
     <row r="23" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="26" t="str" cm="1">
+      <c r="D23" s="25" t="str" cm="1">
         <f t="array" ref="D23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37679,7 +37821,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E23" s="26" t="str" cm="1">
+      <c r="E23" s="25" t="str" cm="1">
         <f t="array" ref="E23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37694,7 +37836,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F23" s="26" t="str" cm="1">
+      <c r="F23" s="25" t="str" cm="1">
         <f t="array" ref="F23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37709,7 +37851,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G23" s="26" t="str" cm="1">
+      <c r="G23" s="25" t="str" cm="1">
         <f t="array" ref="G23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37724,7 +37866,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H23" s="26" t="str" cm="1">
+      <c r="H23" s="25" t="str" cm="1">
         <f t="array" ref="H23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37739,7 +37881,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I23" s="26" t="str" cm="1">
+      <c r="I23" s="25" t="str" cm="1">
         <f t="array" ref="I23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37754,7 +37896,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J23" s="26" t="str" cm="1">
+      <c r="J23" s="25" t="str" cm="1">
         <f t="array" ref="J23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37769,7 +37911,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K23" s="26" t="str" cm="1">
+      <c r="K23" s="25" t="str" cm="1">
         <f t="array" ref="K23">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37788,7 +37930,7 @@
     <row r="24" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="26" t="str" cm="1">
+      <c r="D24" s="25" t="str" cm="1">
         <f t="array" ref="D24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37803,7 +37945,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E24" s="26" t="str" cm="1">
+      <c r="E24" s="25" t="str" cm="1">
         <f t="array" ref="E24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37818,7 +37960,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F24" s="26" t="str" cm="1">
+      <c r="F24" s="25" t="str" cm="1">
         <f t="array" ref="F24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37833,7 +37975,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G24" s="26" t="str" cm="1">
+      <c r="G24" s="25" t="str" cm="1">
         <f t="array" ref="G24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37848,7 +37990,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H24" s="26" t="str" cm="1">
+      <c r="H24" s="25" t="str" cm="1">
         <f t="array" ref="H24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37863,7 +38005,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I24" s="26" t="str" cm="1">
+      <c r="I24" s="25" t="str" cm="1">
         <f t="array" ref="I24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37878,7 +38020,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J24" s="26" t="str" cm="1">
+      <c r="J24" s="25" t="str" cm="1">
         <f t="array" ref="J24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37893,7 +38035,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K24" s="26" t="str" cm="1">
+      <c r="K24" s="25" t="str" cm="1">
         <f t="array" ref="K24">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37912,7 +38054,7 @@
     <row r="25" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="26" t="str" cm="1">
+      <c r="D25" s="25" t="str" cm="1">
         <f t="array" ref="D25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37927,7 +38069,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E25" s="26" t="str" cm="1">
+      <c r="E25" s="25" t="str" cm="1">
         <f t="array" ref="E25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37942,7 +38084,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F25" s="26" t="str" cm="1">
+      <c r="F25" s="25" t="str" cm="1">
         <f t="array" ref="F25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37957,7 +38099,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G25" s="26" t="str" cm="1">
+      <c r="G25" s="25" t="str" cm="1">
         <f t="array" ref="G25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37972,7 +38114,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H25" s="26" t="str" cm="1">
+      <c r="H25" s="25" t="str" cm="1">
         <f t="array" ref="H25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -37987,7 +38129,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I25" s="26" t="str" cm="1">
+      <c r="I25" s="25" t="str" cm="1">
         <f t="array" ref="I25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38002,7 +38144,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J25" s="26" t="str" cm="1">
+      <c r="J25" s="25" t="str" cm="1">
         <f t="array" ref="J25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38017,7 +38159,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K25" s="26" t="str" cm="1">
+      <c r="K25" s="25" t="str" cm="1">
         <f t="array" ref="K25">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38036,7 +38178,7 @@
     <row r="26" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="26" t="str" cm="1">
+      <c r="D26" s="25" t="str" cm="1">
         <f t="array" ref="D26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38051,7 +38193,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E26" s="26" t="str" cm="1">
+      <c r="E26" s="25" t="str" cm="1">
         <f t="array" ref="E26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38066,7 +38208,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F26" s="26" t="str" cm="1">
+      <c r="F26" s="25" t="str" cm="1">
         <f t="array" ref="F26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38081,7 +38223,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G26" s="26" t="str" cm="1">
+      <c r="G26" s="25" t="str" cm="1">
         <f t="array" ref="G26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38096,7 +38238,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H26" s="26" t="str" cm="1">
+      <c r="H26" s="25" t="str" cm="1">
         <f t="array" ref="H26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38111,7 +38253,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I26" s="26" t="str" cm="1">
+      <c r="I26" s="25" t="str" cm="1">
         <f t="array" ref="I26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38126,7 +38268,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J26" s="26" t="str" cm="1">
+      <c r="J26" s="25" t="str" cm="1">
         <f t="array" ref="J26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38141,7 +38283,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K26" s="26" t="str" cm="1">
+      <c r="K26" s="25" t="str" cm="1">
         <f t="array" ref="K26">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38160,7 +38302,7 @@
     <row r="27" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="26" t="str" cm="1">
+      <c r="D27" s="25" t="str" cm="1">
         <f t="array" ref="D27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38175,7 +38317,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E27" s="26" t="str" cm="1">
+      <c r="E27" s="25" t="str" cm="1">
         <f t="array" ref="E27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38190,7 +38332,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F27" s="26" t="str" cm="1">
+      <c r="F27" s="25" t="str" cm="1">
         <f t="array" ref="F27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38205,7 +38347,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G27" s="26" t="str" cm="1">
+      <c r="G27" s="25" t="str" cm="1">
         <f t="array" ref="G27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38220,7 +38362,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H27" s="26" t="str" cm="1">
+      <c r="H27" s="25" t="str" cm="1">
         <f t="array" ref="H27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38235,7 +38377,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I27" s="26" t="str" cm="1">
+      <c r="I27" s="25" t="str" cm="1">
         <f t="array" ref="I27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38250,7 +38392,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J27" s="26" t="str" cm="1">
+      <c r="J27" s="25" t="str" cm="1">
         <f t="array" ref="J27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38265,7 +38407,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K27" s="26" t="str" cm="1">
+      <c r="K27" s="25" t="str" cm="1">
         <f t="array" ref="K27">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38284,7 +38426,7 @@
     <row r="28" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="26" t="str" cm="1">
+      <c r="D28" s="25" t="str" cm="1">
         <f t="array" ref="D28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38299,7 +38441,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E28" s="26" t="str" cm="1">
+      <c r="E28" s="25" t="str" cm="1">
         <f t="array" ref="E28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38314,7 +38456,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F28" s="26" t="str" cm="1">
+      <c r="F28" s="25" t="str" cm="1">
         <f t="array" ref="F28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38329,7 +38471,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G28" s="26" t="str" cm="1">
+      <c r="G28" s="25" t="str" cm="1">
         <f t="array" ref="G28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38344,7 +38486,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H28" s="26" t="str" cm="1">
+      <c r="H28" s="25" t="str" cm="1">
         <f t="array" ref="H28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38359,7 +38501,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I28" s="26" t="str" cm="1">
+      <c r="I28" s="25" t="str" cm="1">
         <f t="array" ref="I28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38374,7 +38516,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J28" s="26" t="str" cm="1">
+      <c r="J28" s="25" t="str" cm="1">
         <f t="array" ref="J28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38389,7 +38531,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K28" s="26" t="str" cm="1">
+      <c r="K28" s="25" t="str" cm="1">
         <f t="array" ref="K28">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38408,7 +38550,7 @@
     <row r="29" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="26" t="str" cm="1">
+      <c r="D29" s="25" t="str" cm="1">
         <f t="array" ref="D29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38423,7 +38565,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E29" s="26" t="str" cm="1">
+      <c r="E29" s="25" t="str" cm="1">
         <f t="array" ref="E29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38438,7 +38580,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F29" s="26" t="str" cm="1">
+      <c r="F29" s="25" t="str" cm="1">
         <f t="array" ref="F29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38453,7 +38595,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G29" s="26" t="str" cm="1">
+      <c r="G29" s="25" t="str" cm="1">
         <f t="array" ref="G29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38468,7 +38610,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H29" s="26" t="str" cm="1">
+      <c r="H29" s="25" t="str" cm="1">
         <f t="array" ref="H29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38483,7 +38625,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I29" s="26" t="str" cm="1">
+      <c r="I29" s="25" t="str" cm="1">
         <f t="array" ref="I29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38498,7 +38640,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J29" s="26" t="str" cm="1">
+      <c r="J29" s="25" t="str" cm="1">
         <f t="array" ref="J29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38513,7 +38655,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K29" s="26" t="str" cm="1">
+      <c r="K29" s="25" t="str" cm="1">
         <f t="array" ref="K29">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38532,7 +38674,7 @@
     <row r="30" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="26" t="str" cm="1">
+      <c r="D30" s="25" t="str" cm="1">
         <f t="array" ref="D30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38547,7 +38689,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E30" s="26" t="str" cm="1">
+      <c r="E30" s="25" t="str" cm="1">
         <f t="array" ref="E30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38562,7 +38704,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F30" s="26" t="str" cm="1">
+      <c r="F30" s="25" t="str" cm="1">
         <f t="array" ref="F30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38577,7 +38719,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G30" s="26" t="str" cm="1">
+      <c r="G30" s="25" t="str" cm="1">
         <f t="array" ref="G30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38592,7 +38734,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H30" s="26" t="str" cm="1">
+      <c r="H30" s="25" t="str" cm="1">
         <f t="array" ref="H30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38607,7 +38749,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I30" s="26" t="str" cm="1">
+      <c r="I30" s="25" t="str" cm="1">
         <f t="array" ref="I30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38622,7 +38764,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J30" s="26" t="str" cm="1">
+      <c r="J30" s="25" t="str" cm="1">
         <f t="array" ref="J30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38637,7 +38779,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K30" s="26" t="str" cm="1">
+      <c r="K30" s="25" t="str" cm="1">
         <f t="array" ref="K30">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38656,7 +38798,7 @@
     <row r="31" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="26" t="str" cm="1">
+      <c r="D31" s="25" t="str" cm="1">
         <f t="array" ref="D31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38671,7 +38813,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E31" s="26" t="str" cm="1">
+      <c r="E31" s="25" t="str" cm="1">
         <f t="array" ref="E31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38686,7 +38828,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F31" s="26" t="str" cm="1">
+      <c r="F31" s="25" t="str" cm="1">
         <f t="array" ref="F31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38701,7 +38843,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G31" s="26" t="str" cm="1">
+      <c r="G31" s="25" t="str" cm="1">
         <f t="array" ref="G31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38716,7 +38858,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H31" s="26" t="str" cm="1">
+      <c r="H31" s="25" t="str" cm="1">
         <f t="array" ref="H31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38731,7 +38873,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I31" s="26" t="str" cm="1">
+      <c r="I31" s="25" t="str" cm="1">
         <f t="array" ref="I31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38746,7 +38888,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J31" s="26" t="str" cm="1">
+      <c r="J31" s="25" t="str" cm="1">
         <f t="array" ref="J31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38761,7 +38903,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K31" s="26" t="str" cm="1">
+      <c r="K31" s="25" t="str" cm="1">
         <f t="array" ref="K31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38780,7 +38922,7 @@
     <row r="32" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="26" t="str" cm="1">
+      <c r="D32" s="25" t="str" cm="1">
         <f t="array" ref="D32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38795,7 +38937,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E32" s="26" t="str" cm="1">
+      <c r="E32" s="25" t="str" cm="1">
         <f t="array" ref="E32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38810,7 +38952,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F32" s="26" t="str" cm="1">
+      <c r="F32" s="25" t="str" cm="1">
         <f t="array" ref="F32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38825,7 +38967,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G32" s="26" t="str" cm="1">
+      <c r="G32" s="25" t="str" cm="1">
         <f t="array" ref="G32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38840,7 +38982,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H32" s="26" t="str" cm="1">
+      <c r="H32" s="25" t="str" cm="1">
         <f t="array" ref="H32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38855,7 +38997,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I32" s="26" t="str" cm="1">
+      <c r="I32" s="25" t="str" cm="1">
         <f t="array" ref="I32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38870,7 +39012,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J32" s="26" t="str" cm="1">
+      <c r="J32" s="25" t="str" cm="1">
         <f t="array" ref="J32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38885,7 +39027,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K32" s="26" t="str" cm="1">
+      <c r="K32" s="25" t="str" cm="1">
         <f t="array" ref="K32">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38904,7 +39046,7 @@
     <row r="33" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="26" t="str" cm="1">
+      <c r="D33" s="25" t="str" cm="1">
         <f t="array" ref="D33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38919,7 +39061,7 @@
 )</f>
         <v>DELL REGULAR 2 / 16</v>
       </c>
-      <c r="E33" s="26" t="str" cm="1">
+      <c r="E33" s="25" t="str" cm="1">
         <f t="array" ref="E33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38934,7 +39076,7 @@
 )</f>
         <v>DELL REGULAR 4 / 16</v>
       </c>
-      <c r="F33" s="26" t="str" cm="1">
+      <c r="F33" s="25" t="str" cm="1">
         <f t="array" ref="F33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38949,7 +39091,7 @@
 )</f>
         <v>DELL REGULAR 4 / 32</v>
       </c>
-      <c r="G33" s="26" t="str" cm="1">
+      <c r="G33" s="25" t="str" cm="1">
         <f t="array" ref="G33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38964,7 +39106,7 @@
 )</f>
         <v>HP REGULAR 4 / 16</v>
       </c>
-      <c r="H33" s="26" t="str" cm="1">
+      <c r="H33" s="25" t="str" cm="1">
         <f t="array" ref="H33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38979,7 +39121,7 @@
 )</f>
         <v>HP REGULAR 4 / 32</v>
       </c>
-      <c r="I33" s="26" t="str" cm="1">
+      <c r="I33" s="25" t="str" cm="1">
         <f t="array" ref="I33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -38994,7 +39136,7 @@
 )</f>
         <v>CTL REGULAR 4 / 16</v>
       </c>
-      <c r="J33" s="26" t="str" cm="1">
+      <c r="J33" s="25" t="str" cm="1">
         <f t="array" ref="J33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -39009,7 +39151,7 @@
 )</f>
         <v>LENOVO REGULAR 4 / 16</v>
       </c>
-      <c r="K33" s="26" t="str" cm="1">
+      <c r="K33" s="25" t="str" cm="1">
         <f t="array" ref="K33">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -39043,8 +39185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1221D056-109F-447C-B3EE-4FA0A79595AD}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39135,7 +39277,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -39566,11 +39708,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">

--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main-server\__users__\__management__\real_enterprise\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82594041-9ABD-47D3-8183-D1348304F620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966DC9FA-3348-4CBA-8682-91FD2284B06C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,49 +892,6 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
@@ -1420,6 +1377,49 @@
           <bgColor rgb="FF5B9BD5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1966,7 +1966,7 @@
   <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1978,7 +1978,7 @@
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB1B283B-D25C-4ADE-980A-2B88D96C5E7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{EF23B0B5-69D7-4593-BCD3-1E27223DDFEC}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1989,7 +1989,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
   <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="0">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
@@ -2264,24 +2264,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:E12" totalsRowCount="1" dataDxfId="30">
   <autoFilter ref="B2:E11" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="4" totalsRowDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F94F3B7C-43FB-401D-946C-911DC6084C25}" name="PRICE" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{18E71263-B447-41B8-A307-55E11D217F5C}" name="TYPE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{F94F3B7C-43FB-401D-946C-911DC6084C25}" name="PRICE" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{18E71263-B447-41B8-A307-55E11D217F5C}" name="TYPE" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B2:K33" xr:uid="{88E544AB-3CB3-482C-9BD3-1D3E19963507}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{FF8BAA1F-8484-4D05-A154-C6916BF5F8CB}" name="Column1" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{FF8BAA1F-8484-4D05-A154-C6916BF5F8CB}" name="Column1" dataDxfId="16">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2295,7 +2295,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E18A7404-24C0-40D0-958F-0154168E0004}" name="Column2" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{E18A7404-24C0-40D0-958F-0154168E0004}" name="Column2" dataDxfId="15">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2309,7 +2309,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12C153DC-3610-4EF4-B4F5-4136E729CEE2}" name="Column3" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{12C153DC-3610-4EF4-B4F5-4136E729CEE2}" name="Column3" dataDxfId="14">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2323,7 +2323,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{03E57C53-410B-46A8-9FCB-493AA86E0AF0}" name="Column4" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{03E57C53-410B-46A8-9FCB-493AA86E0AF0}" name="Column4" dataDxfId="13">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2337,7 +2337,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A33D4DCC-6C69-4003-A6D4-346CFAF90733}" name="Column5" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{A33D4DCC-6C69-4003-A6D4-346CFAF90733}" name="Column5" dataDxfId="12">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2351,7 +2351,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E77AF6CC-8EBF-4EC3-9912-0C1A9B18038E}" name="Column6" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{E77AF6CC-8EBF-4EC3-9912-0C1A9B18038E}" name="Column6" dataDxfId="11">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2365,7 +2365,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A9BE5BDC-5C88-4163-97AF-1958C37017B6}" name="Column7" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{A9BE5BDC-5C88-4163-97AF-1958C37017B6}" name="Column7" dataDxfId="10">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2379,7 +2379,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D38A165-0B74-4C55-99A8-F97336A836A3}" name="Column8" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{1D38A165-0B74-4C55-99A8-F97336A836A3}" name="Column8" dataDxfId="9">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2399,14 +2399,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="8">
   <autoFilter ref="B2:D11" xr:uid="{BB0AAB6B-835C-42D6-8D3B-7ED9003E59CC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_ADD_ONS_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35092,7 +35092,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39277,8 +39277,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/base/base_inventory.xlsx
+++ b/base/base_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__users__\__management__\real_enterprise\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966DC9FA-3348-4CBA-8682-91FD2284B06C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF17BE-F33E-4762-9AEB-A726083E3817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="821" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTORY" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="DATE" sheetId="5" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="_NAMES_ADD_ONS">_TBL_ADD_ONS[ADD ON NAME]</definedName>
     <definedName name="NAMES_BRAND">OFFSET(_TBL_BRAND[NAME], 0, 0, COUNTA(_TBL_BRAND[NAME]), 1)</definedName>
     <definedName name="NAMES_INVENTORY">OFFSET(_TBL_INVENTORY[NAME], 0, 0, COUNTA(_TBL_INVENTORY[NAME]), 1)</definedName>
     <definedName name="NAMES_INVENTORY_TYPE">OFFSET(_TBL_INVENTORY_TYPE[NAME], 0, 0, COUNTA(_TBL_INVENTORY_TYPE[NAME]), 1)</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -437,18 +438,6 @@
     <t>FREEBIES NAME</t>
   </si>
   <si>
-    <t>8 Freebies</t>
-  </si>
-  <si>
-    <t>Mix And Match  Helmet</t>
-  </si>
-  <si>
-    <t>Mix And Match  Action Cam</t>
-  </si>
-  <si>
-    <t>Mix And Match  Cherry Mobile</t>
-  </si>
-  <si>
     <t>ADD ON NAME</t>
   </si>
   <si>
@@ -629,9 +618,6 @@
     <t>Column3</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -644,7 +630,22 @@
     <t>FREEBIES</t>
   </si>
   <si>
-    <t>ADD ONS</t>
+    <t>Computer Basic Set</t>
+  </si>
+  <si>
+    <t>Action Cam</t>
+  </si>
+  <si>
+    <t>7 Laptop Freebies</t>
+  </si>
+  <si>
+    <t>7 LBC Freebies</t>
+  </si>
+  <si>
+    <t>Keyboard &amp; Mouse</t>
+  </si>
+  <si>
+    <t>Powercord</t>
   </si>
 </sst>
 </file>
@@ -891,6 +892,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -1377,49 +1421,6 @@
           <bgColor rgb="FF5B9BD5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1966,7 +1967,7 @@
   <autoFilter ref="B3:D16" xr:uid="{059D30F9-D046-4297-B2D5-BC5338888079}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8FD43C8F-1591-412E-BE99-E5A1E14B95C3}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FE9F0275-0C2B-4FED-9671-794A5EA845F1}" name="NAME" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{28FE780F-BBE9-4B58-AD37-87DA8E77F97E}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1978,7 +1979,7 @@
   <autoFilter ref="B3:D14" xr:uid="{FEF824DF-57E9-41C7-B4B2-D063ED21B078}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BB1B283B-D25C-4ADE-980A-2B88D96C5E7C}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9951A92B-2CA7-435D-ADCB-A39878F2EED5}" name="NAME" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{EF23B0B5-69D7-4593-BCD3-1E27223DDFEC}" name="CODE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1989,7 +1990,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}" name="_TBL_DATES" displayName="_TBL_DATES" ref="B2:F10" totalsRowShown="0">
   <autoFilter ref="B2:F10" xr:uid="{D441CA89-0936-4083-8D2D-762AEB7CF49D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{E2B553E0-CAEF-4A90-A625-C81B383B0525}" name="DATE" dataDxfId="6">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3977A4BE-9ECC-428A-AD33-9D57D8915200}" name="START_DATE"/>
@@ -2138,8 +2139,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_FREEBIES_CATALOG" displayName="_TBL_FREEBIES_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <autoFilter ref="B2:K33" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}" name="_TBL_FREEBIES_CATALOG" displayName="_TBL_FREEBIES_CATALOG" ref="B2:K31" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <autoFilter ref="B2:K31" xr:uid="{27BD5B1B-DBD6-4D7D-B660-C8A0AB832FA9}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7436F674-F68B-4607-8BF6-E1495AFBF453}" name="FREEBIES SET ID" dataDxfId="40"/>
     <tableColumn id="2" xr3:uid="{C920ECEE-E736-4E62-8DFA-A29F851BF4AE}" name="INVENTORY ID" dataDxfId="39"/>
@@ -2261,27 +2262,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:E12" totalsRowCount="1" dataDxfId="30">
-  <autoFilter ref="B2:E11" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}" name="_TBL_FREEBIES_SET" displayName="_TBL_FREEBIES_SET" ref="B2:E19" totalsRowCount="1" dataDxfId="30">
+  <autoFilter ref="B2:E18" xr:uid="{B3B6E215-0C9E-4DA0-8FC6-7755F7A591EC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="1" xr3:uid="{32F70E71-6A90-4834-8035-820929A63A88}" name="ID" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{F94F3B7C-43FB-401D-946C-911DC6084C25}" name="PRICE" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{18E71263-B447-41B8-A307-55E11D217F5C}" name="TYPE" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{ACE17F3B-3F5B-4373-B364-E484DCAEA00C}" name="FREEBIES NAME" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F94F3B7C-43FB-401D-946C-911DC6084C25}" name="PRICE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{18E71263-B447-41B8-A307-55E11D217F5C}" name="TYPE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{7C79148F-E788-4006-B281-353E6926302E}" name="_TBL_ADD_ONS_CATALOG" displayName="_TBL_ADD_ONS_CATALOG" ref="B2:K33" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="B2:K33" xr:uid="{88E544AB-3CB3-482C-9BD3-1D3E19963507}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FF8BAA1F-8484-4D05-A154-C6916BF5F8CB}" name="Column1" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{DF7AE5B2-B349-4750-8C05-6054BE9F6491}" name="FREEBIES SET ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{723F1318-26D9-4E82-9383-16B50864F76C}" name="INVENTORY ID" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{FF8BAA1F-8484-4D05-A154-C6916BF5F8CB}" name="Column1" dataDxfId="22">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2295,7 +2296,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E18A7404-24C0-40D0-958F-0154168E0004}" name="Column2" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{E18A7404-24C0-40D0-958F-0154168E0004}" name="Column2" dataDxfId="21">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2309,7 +2310,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{12C153DC-3610-4EF4-B4F5-4136E729CEE2}" name="Column3" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{12C153DC-3610-4EF4-B4F5-4136E729CEE2}" name="Column3" dataDxfId="20">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2323,7 +2324,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{03E57C53-410B-46A8-9FCB-493AA86E0AF0}" name="Column4" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{03E57C53-410B-46A8-9FCB-493AA86E0AF0}" name="Column4" dataDxfId="19">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2337,7 +2338,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A33D4DCC-6C69-4003-A6D4-346CFAF90733}" name="Column5" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{A33D4DCC-6C69-4003-A6D4-346CFAF90733}" name="Column5" dataDxfId="18">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2351,7 +2352,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E77AF6CC-8EBF-4EC3-9912-0C1A9B18038E}" name="Column6" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{E77AF6CC-8EBF-4EC3-9912-0C1A9B18038E}" name="Column6" dataDxfId="17">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2365,7 +2366,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A9BE5BDC-5C88-4163-97AF-1958C37017B6}" name="Column7" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{A9BE5BDC-5C88-4163-97AF-1958C37017B6}" name="Column7" dataDxfId="16">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2379,7 +2380,7 @@
     ""
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D38A165-0B74-4C55-99A8-F97336A836A3}" name="Column8" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{1D38A165-0B74-4C55-99A8-F97336A836A3}" name="Column8" dataDxfId="15">
       <calculatedColumnFormula array="1">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -2399,14 +2400,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2F0D83D7-F3CC-4F78-97FD-14011F90019A}" name="_TBL_ADD_ONS_SET" displayName="_TBL_ADD_ONS_SET" ref="B2:D12" totalsRowCount="1" dataDxfId="14">
   <autoFilter ref="B2:D11" xr:uid="{BB0AAB6B-835C-42D6-8D3B-7ED9003E59CC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{4726D4B0-ED2A-490F-9921-5D2CC8F88EBC}" name="ID" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_ADD_ONS_SET[ID]))</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0E104AD5-A855-4A7B-ADC3-B84D30D2725D}" name="FREEBIES NAME" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{99EFE178-8946-4C1A-90B3-C5DFBEC66E6E}" name="COST" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2962,7 +2963,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4">
         <v>10</v>
@@ -4816,7 +4817,7 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="9"/>
@@ -5381,15 +5382,15 @@
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -5402,15 +5403,15 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B10" ca="1" si="0">TODAY()</f>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45779</v>
+        <v>45786</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">TODAY()-1</f>
-        <v>45779</v>
+        <v>45786</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -5423,15 +5424,15 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+1</f>
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)+7</f>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -5444,15 +5445,15 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)-6</f>
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),1)</f>
-        <v>45773</v>
+        <v>45780</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -5465,7 +5466,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)+1</f>
@@ -5486,7 +5487,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C8" s="3">
         <f ca="1">EOMONTH(TODAY(),-2)+1</f>
@@ -5507,7 +5508,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
@@ -5528,7 +5529,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5582,19 +5583,19 @@
         <v>116</v>
       </c>
       <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" t="s">
         <v>180</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -5602,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="22">
         <v>3990</v>
@@ -5864,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="22">
         <v>3990</v>
@@ -6126,7 +6127,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="22">
         <v>3990</v>
@@ -6257,7 +6258,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8" s="22">
         <v>3990</v>
@@ -6388,7 +6389,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D9" s="22">
         <v>3990</v>
@@ -6519,7 +6520,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D10" s="22">
         <v>3990</v>
@@ -6650,7 +6651,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D11" s="22">
         <v>3990</v>
@@ -6781,7 +6782,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12" s="22">
         <v>3990</v>
@@ -6912,7 +6913,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="22">
         <v>3990</v>
@@ -7043,7 +7044,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14" s="22">
         <v>3990</v>
@@ -7174,7 +7175,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D15" s="22">
         <v>3990</v>
@@ -7305,7 +7306,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D16" s="22">
         <v>3990</v>
@@ -7436,7 +7437,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D17" s="22">
         <v>3990</v>
@@ -7567,7 +7568,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D18" s="22">
         <v>3990</v>
@@ -7698,7 +7699,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D19" s="22">
         <v>3990</v>
@@ -7829,7 +7830,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D20" s="22">
         <v>3990</v>
@@ -7960,7 +7961,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D21" s="22">
         <v>3990</v>
@@ -8091,7 +8092,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D22" s="22">
         <v>3990</v>
@@ -8222,7 +8223,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D23" s="22">
         <v>3990</v>
@@ -8353,7 +8354,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D24" s="22">
         <v>3990</v>
@@ -8484,7 +8485,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D25" s="22">
         <v>3990</v>
@@ -8615,7 +8616,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D26" s="22">
         <v>3990</v>
@@ -8746,7 +8747,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="22">
         <v>3990</v>
@@ -8877,7 +8878,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D28" s="22">
         <v>3990</v>
@@ -9008,7 +9009,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D29" s="22">
         <v>3990</v>
@@ -9139,7 +9140,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D30" s="22">
         <v>3990</v>
@@ -9270,7 +9271,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D31" s="22">
         <v>3990</v>
@@ -9401,7 +9402,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D32" s="22">
         <v>3990</v>
@@ -9532,7 +9533,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D33" s="22">
         <v>3990</v>
@@ -9663,7 +9664,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D34" s="22">
         <v>3990</v>
@@ -9794,7 +9795,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D35" s="22">
         <v>3990</v>
@@ -9925,7 +9926,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D36" s="22">
         <v>3990</v>
@@ -10056,7 +10057,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D37" s="22">
         <v>3990</v>
@@ -10187,7 +10188,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D38" s="22">
         <v>3990</v>
@@ -10318,7 +10319,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D39" s="22">
         <v>3990</v>
@@ -10449,7 +10450,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D40" s="22">
         <v>3990</v>
@@ -10580,7 +10581,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D41" s="22">
         <v>3990</v>
@@ -10711,7 +10712,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D42" s="22">
         <v>3990</v>
@@ -10973,7 +10974,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D44" s="22">
         <v>3990</v>
@@ -11104,7 +11105,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D45" s="22">
         <v>3990</v>
@@ -11235,7 +11236,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D46" s="22">
         <v>3990</v>
@@ -11628,7 +11629,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D49" s="22">
         <v>3990</v>
@@ -11759,7 +11760,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D50" s="22">
         <v>3990</v>
@@ -31086,7 +31087,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -31094,7 +31095,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -31102,7 +31103,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -31110,7 +31111,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -31124,37 +31125,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B7E052-462E-495F-8FD9-04F1492A8F5C}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="6" width="18.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="17.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>114</v>
@@ -31166,10 +31168,10 @@
         <v>116</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -31177,7 +31179,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D3" s="24" t="str" cm="1">
         <f t="array" ref="D3">IFERROR(
@@ -31207,7 +31209,7 @@
     ),
     ""
 )</f>
-        <v>Large Mouse pad</v>
+        <v/>
       </c>
       <c r="F3" s="24" t="str" cm="1">
         <f t="array" ref="F3">IFERROR(
@@ -31222,7 +31224,7 @@
     ),
     ""
 )</f>
-        <v>Mouse</v>
+        <v/>
       </c>
       <c r="G3" s="24" t="str" cm="1">
         <f t="array" ref="G3">IFERROR(
@@ -31237,7 +31239,7 @@
     ),
     ""
 )</f>
-        <v>Mouse Pad</v>
+        <v/>
       </c>
       <c r="H3" s="24" t="str" cm="1">
         <f t="array" ref="H3">IFERROR(
@@ -31305,7 +31307,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="D4" s="24" t="str" cm="1">
         <f t="array" ref="D4">IFERROR(
@@ -31320,7 +31322,7 @@
     ),
     ""
 )</f>
-        <v>Computer Table</v>
+        <v>Wifi-dongle</v>
       </c>
       <c r="E4" s="24" t="str" cm="1">
         <f t="array" ref="E4">IFERROR(
@@ -31335,7 +31337,7 @@
     ),
     ""
 )</f>
-        <v>Laptop Table</v>
+        <v/>
       </c>
       <c r="F4" s="24" t="str" cm="1">
         <f t="array" ref="F4">IFERROR(
@@ -31433,7 +31435,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D5" s="24" t="str" cm="1">
         <f t="array" ref="D5">IFERROR(
@@ -31448,7 +31450,7 @@
     ),
     ""
 )</f>
-        <v>Laptop Bag</v>
+        <v>Speaker</v>
       </c>
       <c r="E5" s="24" t="str" cm="1">
         <f t="array" ref="E5">IFERROR(
@@ -31463,7 +31465,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>W.Speaker B.</v>
       </c>
       <c r="F5" s="24" t="str" cm="1">
         <f t="array" ref="F5">IFERROR(
@@ -31561,7 +31563,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D6" s="24" t="str" cm="1">
         <f t="array" ref="D6">IFERROR(
@@ -31576,7 +31578,7 @@
     ),
     ""
 )</f>
-        <v>Laptop Brush</v>
+        <v>VGA</v>
       </c>
       <c r="E6" s="24" t="str" cm="1">
         <f t="array" ref="E6">IFERROR(
@@ -31689,7 +31691,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" s="24" t="str" cm="1">
         <f t="array" ref="D7">IFERROR(
@@ -31704,7 +31706,7 @@
     ),
     ""
 )</f>
-        <v>Laptop Stand</v>
+        <v>Power Cord</v>
       </c>
       <c r="E7" s="24" t="str" cm="1">
         <f t="array" ref="E7">IFERROR(
@@ -31817,7 +31819,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D8" s="24" t="str" cm="1">
         <f t="array" ref="D8">IFERROR(
@@ -31832,7 +31834,7 @@
     ),
     ""
 )</f>
-        <v>Charger</v>
+        <v>Large Mouse pad</v>
       </c>
       <c r="E8" s="24" t="str" cm="1">
         <f t="array" ref="E8">IFERROR(
@@ -31847,7 +31849,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>Mouse Pad</v>
       </c>
       <c r="F8" s="24" t="str" cm="1">
         <f t="array" ref="F8">IFERROR(
@@ -31942,10 +31944,10 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="24" t="str" cm="1">
         <f t="array" ref="D9">IFERROR(
@@ -31960,7 +31962,7 @@
     ),
     ""
 )</f>
-        <v>Large Mouse pad</v>
+        <v>Laptop Table</v>
       </c>
       <c r="E9" s="24" t="str" cm="1">
         <f t="array" ref="E9">IFERROR(
@@ -31975,7 +31977,7 @@
     ),
     ""
 )</f>
-        <v>Mouse Pad</v>
+        <v/>
       </c>
       <c r="F9" s="24" t="str" cm="1">
         <f t="array" ref="F9">IFERROR(
@@ -32070,10 +32072,10 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="24" t="str" cm="1">
         <f t="array" ref="D10">IFERROR(
@@ -32088,7 +32090,7 @@
     ),
     ""
 )</f>
-        <v>P47 Headphone</v>
+        <v>Keyboard/Mouse</v>
       </c>
       <c r="E10" s="24" t="str" cm="1">
         <f t="array" ref="E10">IFERROR(
@@ -32103,7 +32105,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>Large Mouse pad</v>
       </c>
       <c r="F10" s="24" t="str" cm="1">
         <f t="array" ref="F10">IFERROR(
@@ -32118,7 +32120,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>Mouse</v>
       </c>
       <c r="G10" s="24" t="str" cm="1">
         <f t="array" ref="G10">IFERROR(
@@ -32133,7 +32135,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>Mouse Pad</v>
       </c>
       <c r="H10" s="24" t="str" cm="1">
         <f t="array" ref="H10">IFERROR(
@@ -32198,10 +32200,10 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D11" s="24" t="str" cm="1">
         <f t="array" ref="D11">IFERROR(
@@ -32216,7 +32218,7 @@
     ),
     ""
 )</f>
-        <v>Helmet</v>
+        <v>Large Mouse pad</v>
       </c>
       <c r="E11" s="24" t="str" cm="1">
         <f t="array" ref="E11">IFERROR(
@@ -32231,7 +32233,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>Mouse Pad</v>
       </c>
       <c r="F11" s="24" t="str" cm="1">
         <f t="array" ref="F11">IFERROR(
@@ -32326,10 +32328,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D12" s="24" t="str" cm="1">
         <f t="array" ref="D12">IFERROR(
@@ -32344,7 +32346,7 @@
     ),
     ""
 )</f>
-        <v>1080p Sports Cam</v>
+        <v>P47 Headphone</v>
       </c>
       <c r="E12" s="24" t="str" cm="1">
         <f t="array" ref="E12">IFERROR(
@@ -32454,10 +32456,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D13" s="24" t="str" cm="1">
         <f t="array" ref="D13">IFERROR(
@@ -32472,7 +32474,7 @@
     ),
     ""
 )</f>
-        <v>Cherry Mobile</v>
+        <v>Laptop Stand</v>
       </c>
       <c r="E13" s="24" t="str" cm="1">
         <f t="array" ref="E13">IFERROR(
@@ -32582,10 +32584,10 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D14" s="24" t="str" cm="1">
         <f t="array" ref="D14">IFERROR(
@@ -32600,7 +32602,7 @@
     ),
     ""
 )</f>
-        <v>VGA</v>
+        <v>Laptop Brush</v>
       </c>
       <c r="E14" s="24" t="str" cm="1">
         <f t="array" ref="E14">IFERROR(
@@ -32710,10 +32712,10 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D15" s="24" t="str" cm="1">
         <f t="array" ref="D15">IFERROR(
@@ -32728,7 +32730,7 @@
     ),
     ""
 )</f>
-        <v>Laminator</v>
+        <v>Laptop Bag</v>
       </c>
       <c r="E15" s="24" t="str" cm="1">
         <f t="array" ref="E15">IFERROR(
@@ -32838,10 +32840,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="D16" s="24" t="str" cm="1">
         <f t="array" ref="D16">IFERROR(
@@ -32856,7 +32858,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>Speaker</v>
       </c>
       <c r="E16" s="24" t="str" cm="1">
         <f t="array" ref="E16">IFERROR(
@@ -32871,7 +32873,7 @@
     ),
     ""
 )</f>
-        <v/>
+        <v>W.Speaker B.</v>
       </c>
       <c r="F16" s="24" t="str" cm="1">
         <f t="array" ref="F16">IFERROR(
@@ -32965,8 +32967,12 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="16">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="D17" s="24" t="str" cm="1">
         <f t="array" ref="D17">IFERROR(
     INDEX(
@@ -32980,7 +32986,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Keyboard/Mouse</v>
       </c>
       <c r="E17" s="24" t="str" cm="1">
         <f t="array" ref="E17">IFERROR(
@@ -32995,7 +33001,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v>Large Mouse pad</v>
       </c>
       <c r="F17" s="24" t="str" cm="1">
         <f t="array" ref="F17">IFERROR(
@@ -33010,7 +33016,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v>Mouse</v>
       </c>
       <c r="G17" s="24" t="str" cm="1">
         <f t="array" ref="G17">IFERROR(
@@ -33025,7 +33031,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v>Mouse Pad</v>
       </c>
       <c r="H17" s="24" t="str" cm="1">
         <f t="array" ref="H17">IFERROR(
@@ -33040,7 +33046,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I17" s="24" t="str" cm="1">
         <f t="array" ref="I17">IFERROR(
@@ -33055,7 +33061,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J17" s="24" t="str" cm="1">
         <f t="array" ref="J17">IFERROR(
@@ -33070,7 +33076,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K17" s="24" t="str" cm="1">
         <f t="array" ref="K17">IFERROR(
@@ -33085,12 +33091,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="16">
+        <v>7</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="D18" s="24" t="str" cm="1">
         <f t="array" ref="D18">IFERROR(
     INDEX(
@@ -33104,7 +33114,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Large Mouse pad</v>
       </c>
       <c r="E18" s="24" t="str" cm="1">
         <f t="array" ref="E18">IFERROR(
@@ -33119,7 +33129,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v>Mouse Pad</v>
       </c>
       <c r="F18" s="24" t="str" cm="1">
         <f t="array" ref="F18">IFERROR(
@@ -33134,7 +33144,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G18" s="24" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(
@@ -33149,7 +33159,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H18" s="24" t="str" cm="1">
         <f t="array" ref="H18">IFERROR(
@@ -33164,7 +33174,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I18" s="24" t="str" cm="1">
         <f t="array" ref="I18">IFERROR(
@@ -33179,7 +33189,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J18" s="24" t="str" cm="1">
         <f t="array" ref="J18">IFERROR(
@@ -33194,7 +33204,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K18" s="24" t="str" cm="1">
         <f t="array" ref="K18">IFERROR(
@@ -33209,12 +33219,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="24" t="str" cm="1">
         <f t="array" ref="D19">IFERROR(
     INDEX(
@@ -33228,7 +33242,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>P47 Headphone</v>
       </c>
       <c r="E19" s="24" t="str" cm="1">
         <f t="array" ref="E19">IFERROR(
@@ -33243,7 +33257,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F19" s="24" t="str" cm="1">
         <f t="array" ref="F19">IFERROR(
@@ -33258,7 +33272,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G19" s="24" t="str" cm="1">
         <f t="array" ref="G19">IFERROR(
@@ -33273,7 +33287,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H19" s="24" t="str" cm="1">
         <f t="array" ref="H19">IFERROR(
@@ -33288,7 +33302,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I19" s="24" t="str" cm="1">
         <f t="array" ref="I19">IFERROR(
@@ -33303,7 +33317,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J19" s="24" t="str" cm="1">
         <f t="array" ref="J19">IFERROR(
@@ -33318,7 +33332,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K19" s="24" t="str" cm="1">
         <f t="array" ref="K19">IFERROR(
@@ -33333,12 +33347,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="16">
+        <v>7</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="D20" s="24" t="str" cm="1">
         <f t="array" ref="D20">IFERROR(
     INDEX(
@@ -33352,7 +33370,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Laptop Stand</v>
       </c>
       <c r="E20" s="24" t="str" cm="1">
         <f t="array" ref="E20">IFERROR(
@@ -33367,7 +33385,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F20" s="24" t="str" cm="1">
         <f t="array" ref="F20">IFERROR(
@@ -33382,7 +33400,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G20" s="24" t="str" cm="1">
         <f t="array" ref="G20">IFERROR(
@@ -33397,7 +33415,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H20" s="24" t="str" cm="1">
         <f t="array" ref="H20">IFERROR(
@@ -33412,7 +33430,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I20" s="24" t="str" cm="1">
         <f t="array" ref="I20">IFERROR(
@@ -33427,7 +33445,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J20" s="24" t="str" cm="1">
         <f t="array" ref="J20">IFERROR(
@@ -33442,7 +33460,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K20" s="24" t="str" cm="1">
         <f t="array" ref="K20">IFERROR(
@@ -33457,12 +33475,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="16">
+        <v>7</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="D21" s="24" t="str" cm="1">
         <f t="array" ref="D21">IFERROR(
     INDEX(
@@ -33476,7 +33498,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Laptop Brush</v>
       </c>
       <c r="E21" s="24" t="str" cm="1">
         <f t="array" ref="E21">IFERROR(
@@ -33491,7 +33513,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F21" s="24" t="str" cm="1">
         <f t="array" ref="F21">IFERROR(
@@ -33506,7 +33528,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G21" s="24" t="str" cm="1">
         <f t="array" ref="G21">IFERROR(
@@ -33521,7 +33543,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H21" s="24" t="str" cm="1">
         <f t="array" ref="H21">IFERROR(
@@ -33536,7 +33558,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I21" s="24" t="str" cm="1">
         <f t="array" ref="I21">IFERROR(
@@ -33551,7 +33573,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J21" s="24" t="str" cm="1">
         <f t="array" ref="J21">IFERROR(
@@ -33566,7 +33588,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K21" s="24" t="str" cm="1">
         <f t="array" ref="K21">IFERROR(
@@ -33581,12 +33603,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="16">
+        <v>7</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="24" t="str" cm="1">
         <f t="array" ref="D22">IFERROR(
     INDEX(
@@ -33600,7 +33626,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Laptop Bag</v>
       </c>
       <c r="E22" s="24" t="str" cm="1">
         <f t="array" ref="E22">IFERROR(
@@ -33615,7 +33641,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F22" s="24" t="str" cm="1">
         <f t="array" ref="F22">IFERROR(
@@ -33630,7 +33656,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G22" s="24" t="str" cm="1">
         <f t="array" ref="G22">IFERROR(
@@ -33645,7 +33671,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H22" s="24" t="str" cm="1">
         <f t="array" ref="H22">IFERROR(
@@ -33660,7 +33686,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I22" s="24" t="str" cm="1">
         <f t="array" ref="I22">IFERROR(
@@ -33675,7 +33701,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J22" s="24" t="str" cm="1">
         <f t="array" ref="J22">IFERROR(
@@ -33690,7 +33716,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K22" s="24" t="str" cm="1">
         <f t="array" ref="K22">IFERROR(
@@ -33705,12 +33731,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="D23" s="24" t="str" cm="1">
         <f t="array" ref="D23">IFERROR(
     INDEX(
@@ -33724,7 +33754,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Paper Cutter</v>
       </c>
       <c r="E23" s="24" t="str" cm="1">
         <f t="array" ref="E23">IFERROR(
@@ -33739,7 +33769,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F23" s="24" t="str" cm="1">
         <f t="array" ref="F23">IFERROR(
@@ -33754,7 +33784,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G23" s="24" t="str" cm="1">
         <f t="array" ref="G23">IFERROR(
@@ -33769,7 +33799,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H23" s="24" t="str" cm="1">
         <f t="array" ref="H23">IFERROR(
@@ -33784,7 +33814,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I23" s="24" t="str" cm="1">
         <f t="array" ref="I23">IFERROR(
@@ -33799,7 +33829,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J23" s="24" t="str" cm="1">
         <f t="array" ref="J23">IFERROR(
@@ -33814,7 +33844,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K23" s="24" t="str" cm="1">
         <f t="array" ref="K23">IFERROR(
@@ -33829,12 +33859,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="24" t="str" cm="1">
         <f t="array" ref="D24">IFERROR(
     INDEX(
@@ -33848,7 +33882,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Laminator</v>
       </c>
       <c r="E24" s="24" t="str" cm="1">
         <f t="array" ref="E24">IFERROR(
@@ -33863,7 +33897,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F24" s="24" t="str" cm="1">
         <f t="array" ref="F24">IFERROR(
@@ -33878,7 +33912,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G24" s="24" t="str" cm="1">
         <f t="array" ref="G24">IFERROR(
@@ -33893,7 +33927,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H24" s="24" t="str" cm="1">
         <f t="array" ref="H24">IFERROR(
@@ -33908,7 +33942,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I24" s="24" t="str" cm="1">
         <f t="array" ref="I24">IFERROR(
@@ -33923,7 +33957,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J24" s="24" t="str" cm="1">
         <f t="array" ref="J24">IFERROR(
@@ -33938,7 +33972,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K24" s="24" t="str" cm="1">
         <f t="array" ref="K24">IFERROR(
@@ -33953,12 +33987,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="16">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="D25" s="24" t="str" cm="1">
         <f t="array" ref="D25">IFERROR(
     INDEX(
@@ -33972,7 +34010,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Stylus Pen</v>
       </c>
       <c r="E25" s="24" t="str" cm="1">
         <f t="array" ref="E25">IFERROR(
@@ -33987,7 +34025,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F25" s="24" t="str" cm="1">
         <f t="array" ref="F25">IFERROR(
@@ -34002,7 +34040,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G25" s="24" t="str" cm="1">
         <f t="array" ref="G25">IFERROR(
@@ -34017,7 +34055,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H25" s="24" t="str" cm="1">
         <f t="array" ref="H25">IFERROR(
@@ -34032,7 +34070,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I25" s="24" t="str" cm="1">
         <f t="array" ref="I25">IFERROR(
@@ -34047,7 +34085,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J25" s="24" t="str" cm="1">
         <f t="array" ref="J25">IFERROR(
@@ -34062,7 +34100,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K25" s="24" t="str" cm="1">
         <f t="array" ref="K25">IFERROR(
@@ -34077,12 +34115,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="D26" s="24" t="str" cm="1">
         <f t="array" ref="D26">IFERROR(
     INDEX(
@@ -34096,7 +34138,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v/>
       </c>
       <c r="E26" s="24" t="str" cm="1">
         <f t="array" ref="E26">IFERROR(
@@ -34111,7 +34153,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F26" s="24" t="str" cm="1">
         <f t="array" ref="F26">IFERROR(
@@ -34126,7 +34168,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G26" s="24" t="str" cm="1">
         <f t="array" ref="G26">IFERROR(
@@ -34141,7 +34183,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H26" s="24" t="str" cm="1">
         <f t="array" ref="H26">IFERROR(
@@ -34156,7 +34198,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I26" s="24" t="str" cm="1">
         <f t="array" ref="I26">IFERROR(
@@ -34171,7 +34213,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J26" s="24" t="str" cm="1">
         <f t="array" ref="J26">IFERROR(
@@ -34186,7 +34228,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K26" s="24" t="str" cm="1">
         <f t="array" ref="K26">IFERROR(
@@ -34201,12 +34243,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="16">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D27" s="24" t="str" cm="1">
         <f t="array" ref="D27">IFERROR(
     INDEX(
@@ -34220,7 +34266,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Big Box</v>
       </c>
       <c r="E27" s="24" t="str" cm="1">
         <f t="array" ref="E27">IFERROR(
@@ -34235,7 +34281,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F27" s="24" t="str" cm="1">
         <f t="array" ref="F27">IFERROR(
@@ -34250,7 +34296,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G27" s="24" t="str" cm="1">
         <f t="array" ref="G27">IFERROR(
@@ -34265,7 +34311,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H27" s="24" t="str" cm="1">
         <f t="array" ref="H27">IFERROR(
@@ -34280,7 +34326,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I27" s="24" t="str" cm="1">
         <f t="array" ref="I27">IFERROR(
@@ -34295,7 +34341,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J27" s="24" t="str" cm="1">
         <f t="array" ref="J27">IFERROR(
@@ -34310,7 +34356,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K27" s="24" t="str" cm="1">
         <f t="array" ref="K27">IFERROR(
@@ -34325,12 +34371,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="15">
+        <v>9</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" s="24" t="str" cm="1">
         <f t="array" ref="D28">IFERROR(
     INDEX(
@@ -34344,7 +34394,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>Computer Table</v>
       </c>
       <c r="E28" s="24" t="str" cm="1">
         <f t="array" ref="E28">IFERROR(
@@ -34359,7 +34409,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F28" s="24" t="str" cm="1">
         <f t="array" ref="F28">IFERROR(
@@ -34374,7 +34424,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G28" s="24" t="str" cm="1">
         <f t="array" ref="G28">IFERROR(
@@ -34389,7 +34439,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H28" s="24" t="str" cm="1">
         <f t="array" ref="H28">IFERROR(
@@ -34404,7 +34454,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I28" s="24" t="str" cm="1">
         <f t="array" ref="I28">IFERROR(
@@ -34419,7 +34469,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J28" s="24" t="str" cm="1">
         <f t="array" ref="J28">IFERROR(
@@ -34434,7 +34484,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K28" s="24" t="str" cm="1">
         <f t="array" ref="K28">IFERROR(
@@ -34449,12 +34499,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="16">
+        <v>10</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="D29" s="24" t="str" cm="1">
         <f t="array" ref="D29">IFERROR(
     INDEX(
@@ -34468,7 +34522,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v/>
       </c>
       <c r="E29" s="24" t="str" cm="1">
         <f t="array" ref="E29">IFERROR(
@@ -34483,7 +34537,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F29" s="24" t="str" cm="1">
         <f t="array" ref="F29">IFERROR(
@@ -34498,7 +34552,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G29" s="24" t="str" cm="1">
         <f t="array" ref="G29">IFERROR(
@@ -34513,7 +34567,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H29" s="24" t="str" cm="1">
         <f t="array" ref="H29">IFERROR(
@@ -34528,7 +34582,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I29" s="24" t="str" cm="1">
         <f t="array" ref="I29">IFERROR(
@@ -34543,7 +34597,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J29" s="24" t="str" cm="1">
         <f t="array" ref="J29">IFERROR(
@@ -34558,7 +34612,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K29" s="24" t="str" cm="1">
         <f t="array" ref="K29">IFERROR(
@@ -34573,12 +34627,16 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="18">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="D30" s="24" t="str" cm="1">
         <f t="array" ref="D30">IFERROR(
     INDEX(
@@ -34592,7 +34650,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
+        <v>VGA</v>
       </c>
       <c r="E30" s="24" t="str" cm="1">
         <f t="array" ref="E30">IFERROR(
@@ -34607,7 +34665,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="F30" s="24" t="str" cm="1">
         <f t="array" ref="F30">IFERROR(
@@ -34622,7 +34680,7 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="G30" s="24" t="str" cm="1">
         <f t="array" ref="G30">IFERROR(
@@ -34637,7 +34695,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="H30" s="24" t="str" cm="1">
         <f t="array" ref="H30">IFERROR(
@@ -34652,7 +34710,7 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
+        <v/>
       </c>
       <c r="I30" s="24" t="str" cm="1">
         <f t="array" ref="I30">IFERROR(
@@ -34667,7 +34725,7 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="J30" s="24" t="str" cm="1">
         <f t="array" ref="J30">IFERROR(
@@ -34682,7 +34740,7 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
+        <v/>
       </c>
       <c r="K30" s="24" t="str" cm="1">
         <f t="array" ref="K30">IFERROR(
@@ -34697,13 +34755,17 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="24" t="str" cm="1">
+      <c r="B31" s="15">
+        <v>12</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="15" t="str">
         <f t="array" ref="D31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34716,9 +34778,9 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 2 / 16</v>
-      </c>
-      <c r="E31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="E31" s="15" t="str">
         <f t="array" ref="E31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34731,9 +34793,9 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 16</v>
-      </c>
-      <c r="F31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="F31" s="15" t="str">
         <f t="array" ref="F31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34746,9 +34808,9 @@
     ),
     ""
 )</f>
-        <v>DELL REGULAR 4 / 32</v>
-      </c>
-      <c r="G31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="G31" s="15" t="str">
         <f t="array" ref="G31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34761,9 +34823,9 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 16</v>
-      </c>
-      <c r="H31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="H31" s="15" t="str">
         <f t="array" ref="H31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34776,9 +34838,9 @@
     ),
     ""
 )</f>
-        <v>HP REGULAR 4 / 32</v>
-      </c>
-      <c r="I31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="I31" s="15" t="str">
         <f t="array" ref="I31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34791,9 +34853,9 @@
     ),
     ""
 )</f>
-        <v>CTL REGULAR 4 / 16</v>
-      </c>
-      <c r="J31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="J31" s="15" t="str">
         <f t="array" ref="J31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34806,9 +34868,9 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 16</v>
-      </c>
-      <c r="K31" s="24" t="str" cm="1">
+        <v/>
+      </c>
+      <c r="K31" s="15" t="str">
         <f t="array" ref="K31">IFERROR(
     INDEX(
         _TBL_INVENTORY[NAME],
@@ -34821,262 +34883,14 @@
     ),
     ""
 )</f>
-        <v>LENOVO REGULAR 4 / 32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="24" t="str" cm="1">
-        <f t="array" ref="D32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),1
-        )
-    ),
-    ""
-)</f>
-        <v>DELL REGULAR 2 / 16</v>
-      </c>
-      <c r="E32" s="24" t="str" cm="1">
-        <f t="array" ref="E32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),2
-        )
-    ),
-    ""
-)</f>
-        <v>DELL REGULAR 4 / 16</v>
-      </c>
-      <c r="F32" s="24" t="str" cm="1">
-        <f t="array" ref="F32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),3
-        )
-    ),
-    ""
-)</f>
-        <v>DELL REGULAR 4 / 32</v>
-      </c>
-      <c r="G32" s="24" t="str" cm="1">
-        <f t="array" ref="G32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),4
-        )
-    ),
-    ""
-)</f>
-        <v>HP REGULAR 4 / 16</v>
-      </c>
-      <c r="H32" s="24" t="str" cm="1">
-        <f t="array" ref="H32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),5
-        )
-    ),
-    ""
-)</f>
-        <v>HP REGULAR 4 / 32</v>
-      </c>
-      <c r="I32" s="24" t="str" cm="1">
-        <f t="array" ref="I32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),6
-        )
-    ),
-    ""
-)</f>
-        <v>CTL REGULAR 4 / 16</v>
-      </c>
-      <c r="J32" s="24" t="str" cm="1">
-        <f t="array" ref="J32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),7
-        )
-    ),
-    ""
-)</f>
-        <v>LENOVO REGULAR 4 / 16</v>
-      </c>
-      <c r="K32" s="24" t="str" cm="1">
-        <f t="array" ref="K32">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C32, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),8
-        )
-    ),
-    ""
-)</f>
-        <v>LENOVO REGULAR 4 / 32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="24" t="str" cm="1">
-        <f t="array" ref="D33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),1
-        )
-    ),
-    ""
-)</f>
-        <v>DELL REGULAR 2 / 16</v>
-      </c>
-      <c r="E33" s="24" t="str" cm="1">
-        <f t="array" ref="E33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),2
-        )
-    ),
-    ""
-)</f>
-        <v>DELL REGULAR 4 / 16</v>
-      </c>
-      <c r="F33" s="24" t="str" cm="1">
-        <f t="array" ref="F33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),3
-        )
-    ),
-    ""
-)</f>
-        <v>DELL REGULAR 4 / 32</v>
-      </c>
-      <c r="G33" s="24" t="str" cm="1">
-        <f t="array" ref="G33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),4
-        )
-    ),
-    ""
-)</f>
-        <v>HP REGULAR 4 / 16</v>
-      </c>
-      <c r="H33" s="24" t="str" cm="1">
-        <f t="array" ref="H33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),5
-        )
-    ),
-    ""
-)</f>
-        <v>HP REGULAR 4 / 32</v>
-      </c>
-      <c r="I33" s="24" t="str" cm="1">
-        <f t="array" ref="I33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),6
-        )
-    ),
-    ""
-)</f>
-        <v>CTL REGULAR 4 / 16</v>
-      </c>
-      <c r="J33" s="24" t="str" cm="1">
-        <f t="array" ref="J33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),7
-        )
-    ),
-    ""
-)</f>
-        <v>LENOVO REGULAR 4 / 16</v>
-      </c>
-      <c r="K33" s="24" t="str" cm="1">
-        <f t="array" ref="K33">IFERROR(
-    INDEX(
-        _TBL_INVENTORY[NAME],
-        SMALL(
-            IF(
-                ISNUMBER(SEARCH($C33, _TBL_INVENTORY[NAME])),
-                ROW(_TBL_INVENTORY[NAME]) - MIN(ROW(_TBL_INVENTORY[NAME])) + 1
-            ),8
-        )
-    ),
-    ""
-)</f>
-        <v>LENOVO REGULAR 4 / 32</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C33" xr:uid="{CFEC936C-E721-4E11-B79A-386B7224804C}">
-      <formula1>OFFSET($D3, 0, 0, 1, COUNTA($D3:$K3) - COUNTBLANK($D3:$K3))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C31" xr:uid="{CFEC936C-E721-4E11-B79A-386B7224804C}">
+      <formula1>_NAMES_ADD_ONS</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35089,10 +34903,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33AE20E-7F3B-4B99-B7CE-E7F8F3E42D03}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35109,7 +34923,7 @@
         <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -35120,11 +34934,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -35132,11 +34946,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -35144,11 +34958,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -35156,11 +34970,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -35168,50 +34982,133 @@
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2000</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="str">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="str">
         <f>_xlfn.CONCAT("COUNT: ", SUBTOTAL(103,_TBL_FREEBIES_SET[ID]))</f>
-        <v>COUNT: 5</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>COUNT: 12</v>
+      </c>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -35237,19 +35134,19 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>114</v>
@@ -35261,10 +35158,10 @@
         <v>116</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36936,7 +36833,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D16" s="25" t="str" cm="1">
         <f t="array" ref="D16">IFERROR(
@@ -39203,7 +39100,7 @@
         <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -39211,7 +39108,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D3" s="19">
         <v>2000</v>
@@ -39277,13 +39174,13 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39292,10 +39189,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -39305,9 +39202,6 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="D3">
-        <v>250</v>
-      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -39316,9 +39210,6 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -39327,9 +39218,6 @@
       <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -39338,9 +39226,6 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -39349,9 +39234,6 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7">
-        <v>5000</v>
-      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -39360,9 +39242,6 @@
       <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -39556,7 +39435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>31</v>
       </c>
@@ -39564,7 +39443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>32</v>
       </c>
@@ -39572,7 +39451,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>33</v>
       </c>
@@ -39580,7 +39459,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>34</v>
       </c>
@@ -39588,7 +39467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>35</v>
       </c>
@@ -39596,7 +39475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>36</v>
       </c>
@@ -39604,7 +39483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>37</v>
       </c>
@@ -39612,7 +39491,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>38</v>
       </c>
@@ -39620,7 +39499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>39</v>
       </c>
@@ -39628,7 +39507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>40</v>
       </c>
@@ -39636,7 +39515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>41</v>
       </c>
@@ -39644,18 +39523,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="D44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>43</v>
       </c>
@@ -39663,7 +39539,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>44</v>
       </c>
@@ -39671,7 +39547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>45</v>
       </c>
